--- a/data/134/DEUSTATIS/old/Foreign trade - EU.xlsx
+++ b/data/134/DEUSTATIS/old/Foreign trade - EU.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="72">
   <si>
     <t>Exports and imports (foreign trade): Germany, months,
 countries</t>
@@ -229,7 +229,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 10:12:11</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:08:12</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1350,7 @@
     <col min="4" max="4" width="8.8984375" customWidth="true"/>
     <col min="9" max="9" width="8.8984375" customWidth="true"/>
     <col min="12" max="12" width="8.8984375" customWidth="true"/>
-    <col min="18" max="18" width="8.8984375" customWidth="true"/>
+    <col min="18" max="18" width="9.99609375" customWidth="true"/>
     <col min="19" max="19" width="8.8984375" customWidth="true"/>
     <col min="20" max="20" width="8.8984375" customWidth="true"/>
     <col min="23" max="23" width="8.8984375" customWidth="true"/>
@@ -43617,82 +43617,82 @@
         <v>35</v>
       </c>
       <c r="D507" t="n" s="10">
-        <v>3897890.0</v>
+        <v>3882627.0</v>
       </c>
       <c r="E507" t="n" s="10">
-        <v>318491.0</v>
+        <v>325678.0</v>
       </c>
       <c r="F507" t="n" s="10">
-        <v>1520260.0</v>
+        <v>1519908.0</v>
       </c>
       <c r="G507" t="n" s="10">
-        <v>142576.0</v>
+        <v>143452.0</v>
       </c>
       <c r="H507" t="n" s="10">
-        <v>1015843.0</v>
+        <v>905772.0</v>
       </c>
       <c r="I507" t="n" s="10">
-        <v>8676366.0</v>
+        <v>8766707.0</v>
       </c>
       <c r="J507" t="n" s="10">
-        <v>538475.0</v>
+        <v>535976.0</v>
       </c>
       <c r="K507" t="n" s="10">
-        <v>636906.0</v>
+        <v>635083.0</v>
       </c>
       <c r="L507" t="n" s="10">
-        <v>5635209.0</v>
+        <v>5654877.0</v>
       </c>
       <c r="M507" t="n" s="10">
-        <v>286660.0</v>
+        <v>286641.0</v>
       </c>
       <c r="N507" t="n" s="10">
-        <v>135140.0</v>
+        <v>135059.0</v>
       </c>
       <c r="O507" t="n" s="10">
-        <v>298713.0</v>
+        <v>298887.0</v>
       </c>
       <c r="P507" t="n" s="10">
-        <v>464015.0</v>
+        <v>465436.0</v>
       </c>
       <c r="Q507" t="n" s="10">
-        <v>53825.0</v>
+        <v>53489.0</v>
       </c>
       <c r="R507" t="n" s="10">
-        <v>7614001.0</v>
+        <v>7584784.0</v>
       </c>
       <c r="S507" t="n" s="10">
-        <v>5347476.0</v>
+        <v>5347385.0</v>
       </c>
       <c r="T507" t="n" s="10">
-        <v>5710701.0</v>
+        <v>5726264.0</v>
       </c>
       <c r="U507" t="n" s="10">
-        <v>958458.0</v>
+        <v>958718.0</v>
       </c>
       <c r="V507" t="n" s="10">
-        <v>1447938.0</v>
+        <v>1459334.0</v>
       </c>
       <c r="W507" t="n" s="10">
-        <v>2070145.0</v>
+        <v>2059399.0</v>
       </c>
       <c r="X507" t="n" s="10">
-        <v>1249050.0</v>
+        <v>1269646.0</v>
       </c>
       <c r="Y507" t="n" s="10">
-        <v>441135.0</v>
+        <v>441144.0</v>
       </c>
       <c r="Z507" t="n" s="10">
-        <v>3640817.0</v>
+        <v>3661137.0</v>
       </c>
       <c r="AA507" t="n" s="10">
-        <v>3653150.0</v>
+        <v>3660570.0</v>
       </c>
       <c r="AB507" t="n" s="10">
-        <v>2222307.0</v>
+        <v>2227933.0</v>
       </c>
       <c r="AC507" t="n" s="10">
-        <v>47094.0</v>
+        <v>46916.0</v>
       </c>
     </row>
     <row r="508">
@@ -43703,82 +43703,82 @@
         <v>35</v>
       </c>
       <c r="D508" t="n" s="10">
-        <v>3287565.0</v>
+        <v>3265007.0</v>
       </c>
       <c r="E508" t="n" s="10">
-        <v>408103.0</v>
+        <v>407356.0</v>
       </c>
       <c r="F508" t="n" s="10">
-        <v>948985.0</v>
+        <v>951042.0</v>
       </c>
       <c r="G508" t="n" s="10">
-        <v>58650.0</v>
+        <v>59016.0</v>
       </c>
       <c r="H508" t="n" s="10">
-        <v>638453.0</v>
+        <v>628906.0</v>
       </c>
       <c r="I508" t="n" s="10">
-        <v>5175984.0</v>
+        <v>5164750.0</v>
       </c>
       <c r="J508" t="n" s="10">
-        <v>167278.0</v>
+        <v>169838.0</v>
       </c>
       <c r="K508" t="n" s="10">
-        <v>1771731.0</v>
+        <v>1785779.0</v>
       </c>
       <c r="L508" t="n" s="10">
-        <v>4351659.0</v>
+        <v>4354675.0</v>
       </c>
       <c r="M508" t="n" s="10">
-        <v>135415.0</v>
+        <v>136539.0</v>
       </c>
       <c r="N508" t="n" s="10">
-        <v>91943.0</v>
+        <v>92902.0</v>
       </c>
       <c r="O508" t="n" s="10">
-        <v>188517.0</v>
+        <v>188596.0</v>
       </c>
       <c r="P508" t="n" s="10">
-        <v>263030.0</v>
+        <v>261966.0</v>
       </c>
       <c r="Q508" t="n" s="10">
-        <v>31074.0</v>
+        <v>30613.0</v>
       </c>
       <c r="R508" t="n" s="10">
-        <v>7796582.0</v>
+        <v>7779900.0</v>
       </c>
       <c r="S508" t="n" s="10">
-        <v>3347293.0</v>
+        <v>3367889.0</v>
       </c>
       <c r="T508" t="n" s="10">
-        <v>4835638.0</v>
+        <v>4865275.0</v>
       </c>
       <c r="U508" t="n" s="10">
-        <v>579815.0</v>
+        <v>590250.0</v>
       </c>
       <c r="V508" t="n" s="10">
-        <v>1266365.0</v>
+        <v>1275855.0</v>
       </c>
       <c r="W508" t="n" s="10">
-        <v>1278940.0</v>
+        <v>1265614.0</v>
       </c>
       <c r="X508" t="n" s="10">
-        <v>1106048.0</v>
+        <v>1121816.0</v>
       </c>
       <c r="Y508" t="n" s="10">
-        <v>491750.0</v>
+        <v>490668.0</v>
       </c>
       <c r="Z508" t="n" s="10">
-        <v>2742552.0</v>
+        <v>2726978.0</v>
       </c>
       <c r="AA508" t="n" s="10">
-        <v>3780854.0</v>
+        <v>3820579.0</v>
       </c>
       <c r="AB508" t="n" s="10">
-        <v>2290935.0</v>
+        <v>2314822.0</v>
       </c>
       <c r="AC508" t="n" s="10">
-        <v>8506.0</v>
+        <v>8411.0</v>
       </c>
     </row>
     <row r="509">
@@ -43792,82 +43792,82 @@
         <v>35</v>
       </c>
       <c r="D509" t="n" s="10">
-        <v>3888690.0</v>
+        <v>3884728.0</v>
       </c>
       <c r="E509" t="n" s="10">
-        <v>343435.0</v>
+        <v>346255.0</v>
       </c>
       <c r="F509" t="n" s="10">
-        <v>1667251.0</v>
+        <v>1669613.0</v>
       </c>
       <c r="G509" t="n" s="10">
-        <v>142421.0</v>
+        <v>143789.0</v>
       </c>
       <c r="H509" t="n" s="10">
-        <v>923280.0</v>
+        <v>918588.0</v>
       </c>
       <c r="I509" t="n" s="10">
-        <v>9053711.0</v>
+        <v>9039027.0</v>
       </c>
       <c r="J509" t="n" s="10">
-        <v>519820.0</v>
+        <v>521137.0</v>
       </c>
       <c r="K509" t="n" s="10">
-        <v>730153.0</v>
+        <v>732607.0</v>
       </c>
       <c r="L509" t="n" s="10">
-        <v>5758334.0</v>
+        <v>5717649.0</v>
       </c>
       <c r="M509" t="n" s="10">
-        <v>324945.0</v>
+        <v>325213.0</v>
       </c>
       <c r="N509" t="n" s="10">
-        <v>132427.0</v>
+        <v>134600.0</v>
       </c>
       <c r="O509" t="n" s="10">
-        <v>296013.0</v>
+        <v>298495.0</v>
       </c>
       <c r="P509" t="n" s="10">
-        <v>481785.0</v>
+        <v>485962.0</v>
       </c>
       <c r="Q509" t="n" s="10">
-        <v>62266.0</v>
+        <v>62448.0</v>
       </c>
       <c r="R509" t="n" s="10">
-        <v>7170893.0</v>
+        <v>7199406.0</v>
       </c>
       <c r="S509" t="n" s="10">
-        <v>5411748.0</v>
+        <v>5398710.0</v>
       </c>
       <c r="T509" t="n" s="10">
-        <v>5701946.0</v>
+        <v>5706196.0</v>
       </c>
       <c r="U509" t="n" s="10">
-        <v>853009.0</v>
+        <v>846907.0</v>
       </c>
       <c r="V509" t="n" s="10">
-        <v>1521888.0</v>
+        <v>1504140.0</v>
       </c>
       <c r="W509" t="n" s="10">
-        <v>2115706.0</v>
+        <v>2115949.0</v>
       </c>
       <c r="X509" t="n" s="10">
-        <v>1227688.0</v>
+        <v>1237714.0</v>
       </c>
       <c r="Y509" t="n" s="10">
-        <v>461490.0</v>
+        <v>460258.0</v>
       </c>
       <c r="Z509" t="n" s="10">
-        <v>3614530.0</v>
+        <v>3575200.0</v>
       </c>
       <c r="AA509" t="n" s="10">
-        <v>3660822.0</v>
+        <v>3651866.0</v>
       </c>
       <c r="AB509" t="n" s="10">
-        <v>2360224.0</v>
+        <v>2303519.0</v>
       </c>
       <c r="AC509" t="n" s="10">
-        <v>52188.0</v>
+        <v>246993.0</v>
       </c>
     </row>
     <row r="510">
@@ -43878,82 +43878,82 @@
         <v>35</v>
       </c>
       <c r="D510" t="n" s="10">
-        <v>3562775.0</v>
+        <v>3538227.0</v>
       </c>
       <c r="E510" t="n" s="10">
-        <v>359661.0</v>
+        <v>359743.0</v>
       </c>
       <c r="F510" t="n" s="10">
-        <v>998330.0</v>
+        <v>994873.0</v>
       </c>
       <c r="G510" t="n" s="10">
-        <v>59258.0</v>
+        <v>58887.0</v>
       </c>
       <c r="H510" t="n" s="10">
-        <v>657264.0</v>
+        <v>645201.0</v>
       </c>
       <c r="I510" t="n" s="10">
-        <v>5527955.0</v>
+        <v>5596179.0</v>
       </c>
       <c r="J510" t="n" s="10">
-        <v>178958.0</v>
+        <v>180658.0</v>
       </c>
       <c r="K510" t="n" s="10">
-        <v>1333886.0</v>
+        <v>1329686.0</v>
       </c>
       <c r="L510" t="n" s="10">
-        <v>5013129.0</v>
+        <v>4987678.0</v>
       </c>
       <c r="M510" t="n" s="10">
-        <v>137284.0</v>
+        <v>137031.0</v>
       </c>
       <c r="N510" t="n" s="10">
-        <v>74070.0</v>
+        <v>74809.0</v>
       </c>
       <c r="O510" t="n" s="10">
-        <v>187065.0</v>
+        <v>186915.0</v>
       </c>
       <c r="P510" t="n" s="10">
-        <v>241333.0</v>
+        <v>238844.0</v>
       </c>
       <c r="Q510" t="n" s="10">
-        <v>32971.0</v>
+        <v>32912.0</v>
       </c>
       <c r="R510" t="n" s="10">
-        <v>8070557.0</v>
+        <v>7997471.0</v>
       </c>
       <c r="S510" t="n" s="10">
-        <v>3616186.0</v>
+        <v>3642690.0</v>
       </c>
       <c r="T510" t="n" s="10">
-        <v>4868538.0</v>
+        <v>4878006.0</v>
       </c>
       <c r="U510" t="n" s="10">
-        <v>596298.0</v>
+        <v>605539.0</v>
       </c>
       <c r="V510" t="n" s="10">
-        <v>1323546.0</v>
+        <v>1340831.0</v>
       </c>
       <c r="W510" t="n" s="10">
-        <v>1415945.0</v>
+        <v>1398226.0</v>
       </c>
       <c r="X510" t="n" s="10">
-        <v>1299864.0</v>
+        <v>1319812.0</v>
       </c>
       <c r="Y510" t="n" s="10">
-        <v>533271.0</v>
+        <v>535242.0</v>
       </c>
       <c r="Z510" t="n" s="10">
-        <v>2887429.0</v>
+        <v>2882023.0</v>
       </c>
       <c r="AA510" t="n" s="10">
-        <v>3879644.0</v>
+        <v>3937970.0</v>
       </c>
       <c r="AB510" t="n" s="10">
-        <v>2476990.0</v>
+        <v>2497370.0</v>
       </c>
       <c r="AC510" t="n" s="10">
-        <v>6974.0</v>
+        <v>6784.0</v>
       </c>
     </row>
     <row r="511">
@@ -43967,82 +43967,82 @@
         <v>35</v>
       </c>
       <c r="D511" t="n" s="10">
-        <v>3765778.0</v>
+        <v>3788382.0</v>
       </c>
       <c r="E511" t="n" s="10">
-        <v>328850.0</v>
+        <v>330577.0</v>
       </c>
       <c r="F511" t="n" s="10">
-        <v>1632365.0</v>
+        <v>1639130.0</v>
       </c>
       <c r="G511" t="n" s="10">
-        <v>150334.0</v>
+        <v>150590.0</v>
       </c>
       <c r="H511" t="n" s="10">
-        <v>977289.0</v>
+        <v>979547.0</v>
       </c>
       <c r="I511" t="n" s="10">
-        <v>7824037.0</v>
+        <v>7839301.0</v>
       </c>
       <c r="J511" t="n" s="10">
-        <v>481764.0</v>
+        <v>483096.0</v>
       </c>
       <c r="K511" t="n" s="10">
-        <v>660117.0</v>
+        <v>702337.0</v>
       </c>
       <c r="L511" t="n" s="10">
-        <v>5022503.0</v>
+        <v>5114486.0</v>
       </c>
       <c r="M511" t="n" s="10">
-        <v>330762.0</v>
+        <v>332944.0</v>
       </c>
       <c r="N511" t="n" s="10">
-        <v>140534.0</v>
+        <v>141608.0</v>
       </c>
       <c r="O511" t="n" s="10">
-        <v>294091.0</v>
+        <v>298299.0</v>
       </c>
       <c r="P511" t="n" s="10">
-        <v>447505.0</v>
+        <v>450760.0</v>
       </c>
       <c r="Q511" t="n" s="10">
-        <v>56463.0</v>
+        <v>56478.0</v>
       </c>
       <c r="R511" t="n" s="10">
-        <v>7546883.0</v>
+        <v>7573610.0</v>
       </c>
       <c r="S511" t="n" s="10">
-        <v>5234756.0</v>
+        <v>5264101.0</v>
       </c>
       <c r="T511" t="n" s="10">
-        <v>5681173.0</v>
+        <v>5711960.0</v>
       </c>
       <c r="U511" t="n" s="10">
-        <v>783925.0</v>
+        <v>785349.0</v>
       </c>
       <c r="V511" t="n" s="10">
-        <v>1393817.0</v>
+        <v>1401804.0</v>
       </c>
       <c r="W511" t="n" s="10">
-        <v>2100169.0</v>
+        <v>2100315.0</v>
       </c>
       <c r="X511" t="n" s="10">
-        <v>1118704.0</v>
+        <v>1144704.0</v>
       </c>
       <c r="Y511" t="n" s="10">
-        <v>448702.0</v>
+        <v>449937.0</v>
       </c>
       <c r="Z511" t="n" s="10">
-        <v>3370802.0</v>
+        <v>3402141.0</v>
       </c>
       <c r="AA511" t="n" s="10">
-        <v>3648066.0</v>
+        <v>3663918.0</v>
       </c>
       <c r="AB511" t="n" s="10">
-        <v>2198143.0</v>
+        <v>2221256.0</v>
       </c>
       <c r="AC511" t="n" s="10">
-        <v>41273.0</v>
+        <v>41461.0</v>
       </c>
     </row>
     <row r="512">
@@ -44053,82 +44053,82 @@
         <v>35</v>
       </c>
       <c r="D512" t="n" s="10">
-        <v>3431618.0</v>
+        <v>3413299.0</v>
       </c>
       <c r="E512" t="n" s="10">
-        <v>407130.0</v>
+        <v>407077.0</v>
       </c>
       <c r="F512" t="n" s="10">
-        <v>1053168.0</v>
+        <v>1053627.0</v>
       </c>
       <c r="G512" t="n" s="10">
-        <v>70510.0</v>
+        <v>71112.0</v>
       </c>
       <c r="H512" t="n" s="10">
-        <v>695177.0</v>
+        <v>687945.0</v>
       </c>
       <c r="I512" t="n" s="10">
-        <v>5365359.0</v>
+        <v>5343999.0</v>
       </c>
       <c r="J512" t="n" s="10">
-        <v>180604.0</v>
+        <v>183769.0</v>
       </c>
       <c r="K512" t="n" s="10">
-        <v>1994593.0</v>
+        <v>1989705.0</v>
       </c>
       <c r="L512" t="n" s="10">
-        <v>4730675.0</v>
+        <v>4729038.0</v>
       </c>
       <c r="M512" t="n" s="10">
-        <v>153317.0</v>
+        <v>156289.0</v>
       </c>
       <c r="N512" t="n" s="10">
-        <v>73359.0</v>
+        <v>73768.0</v>
       </c>
       <c r="O512" t="n" s="10">
-        <v>179629.0</v>
+        <v>181411.0</v>
       </c>
       <c r="P512" t="n" s="10">
-        <v>251947.0</v>
+        <v>255030.0</v>
       </c>
       <c r="Q512" t="n" s="10">
-        <v>33329.0</v>
+        <v>32965.0</v>
       </c>
       <c r="R512" t="n" s="10">
-        <v>8391394.0</v>
+        <v>8332582.0</v>
       </c>
       <c r="S512" t="n" s="10">
-        <v>3554962.0</v>
+        <v>3584245.0</v>
       </c>
       <c r="T512" t="n" s="10">
-        <v>4781129.0</v>
+        <v>4819420.0</v>
       </c>
       <c r="U512" t="n" s="10">
-        <v>549123.0</v>
+        <v>558073.0</v>
       </c>
       <c r="V512" t="n" s="10">
-        <v>1178390.0</v>
+        <v>1201402.0</v>
       </c>
       <c r="W512" t="n" s="10">
-        <v>1373002.0</v>
+        <v>1363745.0</v>
       </c>
       <c r="X512" t="n" s="10">
-        <v>1301789.0</v>
+        <v>1324712.0</v>
       </c>
       <c r="Y512" t="n" s="10">
-        <v>484414.0</v>
+        <v>487612.0</v>
       </c>
       <c r="Z512" t="n" s="10">
-        <v>2632853.0</v>
+        <v>2628289.0</v>
       </c>
       <c r="AA512" t="n" s="10">
-        <v>3592846.0</v>
+        <v>3643650.0</v>
       </c>
       <c r="AB512" t="n" s="10">
-        <v>2272994.0</v>
+        <v>2290585.0</v>
       </c>
       <c r="AC512" t="n" s="10">
-        <v>7899.0</v>
+        <v>7863.0</v>
       </c>
     </row>
     <row r="513">
@@ -44142,82 +44142,82 @@
         <v>35</v>
       </c>
       <c r="D513" t="n" s="10">
-        <v>2786530.0</v>
+        <v>2799835.0</v>
       </c>
       <c r="E513" t="n" s="10">
-        <v>235724.0</v>
+        <v>237969.0</v>
       </c>
       <c r="F513" t="n" s="10">
-        <v>1258984.0</v>
+        <v>1267997.0</v>
       </c>
       <c r="G513" t="n" s="10">
-        <v>113448.0</v>
+        <v>114791.0</v>
       </c>
       <c r="H513" t="n" s="10">
-        <v>671011.0</v>
+        <v>673888.0</v>
       </c>
       <c r="I513" t="n" s="10">
-        <v>4769940.0</v>
+        <v>4792483.0</v>
       </c>
       <c r="J513" t="n" s="10">
-        <v>409762.0</v>
+        <v>409541.0</v>
       </c>
       <c r="K513" t="n" s="10">
-        <v>505149.0</v>
+        <v>507360.0</v>
       </c>
       <c r="L513" t="n" s="10">
-        <v>3311796.0</v>
+        <v>3309187.0</v>
       </c>
       <c r="M513" t="n" s="10">
-        <v>209955.0</v>
+        <v>211100.0</v>
       </c>
       <c r="N513" t="n" s="10">
-        <v>105662.0</v>
+        <v>106780.0</v>
       </c>
       <c r="O513" t="n" s="10">
-        <v>225287.0</v>
+        <v>226478.0</v>
       </c>
       <c r="P513" t="n" s="10">
-        <v>319659.0</v>
+        <v>324271.0</v>
       </c>
       <c r="Q513" t="n" s="10">
-        <v>33278.0</v>
+        <v>33631.0</v>
       </c>
       <c r="R513" t="n" s="10">
-        <v>5983722.0</v>
+        <v>6019120.0</v>
       </c>
       <c r="S513" t="n" s="10">
-        <v>3928211.0</v>
+        <v>3957209.0</v>
       </c>
       <c r="T513" t="n" s="10">
-        <v>3912117.0</v>
+        <v>3942934.0</v>
       </c>
       <c r="U513" t="n" s="10">
-        <v>415284.0</v>
+        <v>416056.0</v>
       </c>
       <c r="V513" t="n" s="10">
-        <v>840667.0</v>
+        <v>843581.0</v>
       </c>
       <c r="W513" t="n" s="10">
-        <v>1569052.0</v>
+        <v>1571837.0</v>
       </c>
       <c r="X513" t="n" s="10">
-        <v>580764.0</v>
+        <v>585515.0</v>
       </c>
       <c r="Y513" t="n" s="10">
-        <v>305224.0</v>
+        <v>306526.0</v>
       </c>
       <c r="Z513" t="n" s="10">
-        <v>1922514.0</v>
+        <v>1932805.0</v>
       </c>
       <c r="AA513" t="n" s="10">
-        <v>2476025.0</v>
+        <v>2487313.0</v>
       </c>
       <c r="AB513" t="n" s="10">
-        <v>1343365.0</v>
+        <v>1362031.0</v>
       </c>
       <c r="AC513" t="n" s="10">
-        <v>34418.0</v>
+        <v>34690.0</v>
       </c>
     </row>
     <row r="514">
@@ -44228,82 +44228,82 @@
         <v>35</v>
       </c>
       <c r="D514" t="n" s="10">
-        <v>2725071.0</v>
+        <v>2713883.0</v>
       </c>
       <c r="E514" t="n" s="10">
-        <v>319206.0</v>
+        <v>319428.0</v>
       </c>
       <c r="F514" t="n" s="10">
-        <v>870766.0</v>
+        <v>870685.0</v>
       </c>
       <c r="G514" t="n" s="10">
-        <v>60568.0</v>
+        <v>61176.0</v>
       </c>
       <c r="H514" t="n" s="10">
-        <v>568987.0</v>
+        <v>569273.0</v>
       </c>
       <c r="I514" t="n" s="10">
-        <v>3424817.0</v>
+        <v>3407969.0</v>
       </c>
       <c r="J514" t="n" s="10">
-        <v>205959.0</v>
+        <v>207116.0</v>
       </c>
       <c r="K514" t="n" s="10">
-        <v>1611014.0</v>
+        <v>1609511.0</v>
       </c>
       <c r="L514" t="n" s="10">
-        <v>3213859.0</v>
+        <v>3198744.0</v>
       </c>
       <c r="M514" t="n" s="10">
-        <v>118387.0</v>
+        <v>117384.0</v>
       </c>
       <c r="N514" t="n" s="10">
-        <v>72230.0</v>
+        <v>72551.0</v>
       </c>
       <c r="O514" t="n" s="10">
-        <v>144954.0</v>
+        <v>149704.0</v>
       </c>
       <c r="P514" t="n" s="10">
-        <v>190994.0</v>
+        <v>190393.0</v>
       </c>
       <c r="Q514" t="n" s="10">
-        <v>27310.0</v>
+        <v>27112.0</v>
       </c>
       <c r="R514" t="n" s="10">
-        <v>6506755.0</v>
+        <v>6490845.0</v>
       </c>
       <c r="S514" t="n" s="10">
-        <v>2787104.0</v>
+        <v>2799533.0</v>
       </c>
       <c r="T514" t="n" s="10">
-        <v>3578039.0</v>
+        <v>3586389.0</v>
       </c>
       <c r="U514" t="n" s="10">
-        <v>326782.0</v>
+        <v>328319.0</v>
       </c>
       <c r="V514" t="n" s="10">
-        <v>631430.0</v>
+        <v>638529.0</v>
       </c>
       <c r="W514" t="n" s="10">
-        <v>1190081.0</v>
+        <v>1183902.0</v>
       </c>
       <c r="X514" t="n" s="10">
-        <v>639736.0</v>
+        <v>640889.0</v>
       </c>
       <c r="Y514" t="n" s="10">
-        <v>335854.0</v>
+        <v>334531.0</v>
       </c>
       <c r="Z514" t="n" s="10">
-        <v>1787441.0</v>
+        <v>1785657.0</v>
       </c>
       <c r="AA514" t="n" s="10">
-        <v>2333772.0</v>
+        <v>2327122.0</v>
       </c>
       <c r="AB514" t="n" s="10">
-        <v>1381881.0</v>
+        <v>1377903.0</v>
       </c>
       <c r="AC514" t="n" s="10">
-        <v>9613.0</v>
+        <v>9520.0</v>
       </c>
     </row>
     <row r="515">
@@ -44317,82 +44317,82 @@
         <v>35</v>
       </c>
       <c r="D515" t="n" s="10">
-        <v>2770946.0</v>
+        <v>2781241.0</v>
       </c>
       <c r="E515" t="n" s="10">
-        <v>233297.0</v>
+        <v>234569.0</v>
       </c>
       <c r="F515" t="n" s="10">
-        <v>1336995.0</v>
+        <v>1350986.0</v>
       </c>
       <c r="G515" t="n" s="10">
-        <v>108536.0</v>
+        <v>109155.0</v>
       </c>
       <c r="H515" t="n" s="10">
-        <v>693786.0</v>
+        <v>696307.0</v>
       </c>
       <c r="I515" t="n" s="10">
-        <v>6090243.0</v>
+        <v>6119709.0</v>
       </c>
       <c r="J515" t="n" s="10">
-        <v>411809.0</v>
+        <v>412641.0</v>
       </c>
       <c r="K515" t="n" s="10">
-        <v>438761.0</v>
+        <v>439867.0</v>
       </c>
       <c r="L515" t="n" s="10">
-        <v>4345771.0</v>
+        <v>4474512.0</v>
       </c>
       <c r="M515" t="n" s="10">
-        <v>239869.0</v>
+        <v>241414.0</v>
       </c>
       <c r="N515" t="n" s="10">
-        <v>103798.0</v>
+        <v>104647.0</v>
       </c>
       <c r="O515" t="n" s="10">
-        <v>214461.0</v>
+        <v>215598.0</v>
       </c>
       <c r="P515" t="n" s="10">
-        <v>380824.0</v>
+        <v>384841.0</v>
       </c>
       <c r="Q515" t="n" s="10">
-        <v>28468.0</v>
+        <v>28720.0</v>
       </c>
       <c r="R515" t="n" s="10">
-        <v>6029573.0</v>
+        <v>6066617.0</v>
       </c>
       <c r="S515" t="n" s="10">
-        <v>4288284.0</v>
+        <v>4321182.0</v>
       </c>
       <c r="T515" t="n" s="10">
-        <v>4095666.0</v>
+        <v>4131373.0</v>
       </c>
       <c r="U515" t="n" s="10">
-        <v>542860.0</v>
+        <v>543721.0</v>
       </c>
       <c r="V515" t="n" s="10">
-        <v>904927.0</v>
+        <v>907683.0</v>
       </c>
       <c r="W515" t="n" s="10">
-        <v>1560196.0</v>
+        <v>1563302.0</v>
       </c>
       <c r="X515" t="n" s="10">
-        <v>778164.0</v>
+        <v>785662.0</v>
       </c>
       <c r="Y515" t="n" s="10">
-        <v>329811.0</v>
+        <v>332356.0</v>
       </c>
       <c r="Z515" t="n" s="10">
-        <v>2329629.0</v>
+        <v>2339021.0</v>
       </c>
       <c r="AA515" t="n" s="10">
-        <v>2577350.0</v>
+        <v>2605108.0</v>
       </c>
       <c r="AB515" t="n" s="10">
-        <v>1471449.0</v>
+        <v>1488031.0</v>
       </c>
       <c r="AC515" t="n" s="10">
-        <v>34781.0</v>
+        <v>35060.0</v>
       </c>
     </row>
     <row r="516">
@@ -44403,82 +44403,82 @@
         <v>35</v>
       </c>
       <c r="D516" t="n" s="10">
-        <v>2662323.0</v>
+        <v>2658000.0</v>
       </c>
       <c r="E516" t="n" s="10">
-        <v>327747.0</v>
+        <v>326820.0</v>
       </c>
       <c r="F516" t="n" s="10">
-        <v>806378.0</v>
+        <v>806466.0</v>
       </c>
       <c r="G516" t="n" s="10">
-        <v>66788.0</v>
+        <v>67291.0</v>
       </c>
       <c r="H516" t="n" s="10">
-        <v>509975.0</v>
+        <v>508564.0</v>
       </c>
       <c r="I516" t="n" s="10">
-        <v>3900794.0</v>
+        <v>3873821.0</v>
       </c>
       <c r="J516" t="n" s="10">
-        <v>173188.0</v>
+        <v>173409.0</v>
       </c>
       <c r="K516" t="n" s="10">
-        <v>1609786.0</v>
+        <v>1607019.0</v>
       </c>
       <c r="L516" t="n" s="10">
-        <v>3929256.0</v>
+        <v>3920893.0</v>
       </c>
       <c r="M516" t="n" s="10">
-        <v>125531.0</v>
+        <v>124527.0</v>
       </c>
       <c r="N516" t="n" s="10">
-        <v>70783.0</v>
+        <v>70863.0</v>
       </c>
       <c r="O516" t="n" s="10">
-        <v>145794.0</v>
+        <v>150899.0</v>
       </c>
       <c r="P516" t="n" s="10">
-        <v>212889.0</v>
+        <v>211891.0</v>
       </c>
       <c r="Q516" t="n" s="10">
-        <v>28991.0</v>
+        <v>28760.0</v>
       </c>
       <c r="R516" t="n" s="10">
-        <v>6639998.0</v>
+        <v>6548344.0</v>
       </c>
       <c r="S516" t="n" s="10">
-        <v>2759290.0</v>
+        <v>2752894.0</v>
       </c>
       <c r="T516" t="n" s="10">
-        <v>4013028.0</v>
+        <v>4007495.0</v>
       </c>
       <c r="U516" t="n" s="10">
-        <v>442985.0</v>
+        <v>442969.0</v>
       </c>
       <c r="V516" t="n" s="10">
-        <v>868240.0</v>
+        <v>868058.0</v>
       </c>
       <c r="W516" t="n" s="10">
-        <v>1056436.0</v>
+        <v>1054507.0</v>
       </c>
       <c r="X516" t="n" s="10">
-        <v>846763.0</v>
+        <v>849830.0</v>
       </c>
       <c r="Y516" t="n" s="10">
-        <v>369437.0</v>
+        <v>367323.0</v>
       </c>
       <c r="Z516" t="n" s="10">
-        <v>2195957.0</v>
+        <v>2193710.0</v>
       </c>
       <c r="AA516" t="n" s="10">
-        <v>2822380.0</v>
+        <v>2849060.0</v>
       </c>
       <c r="AB516" t="n" s="10">
-        <v>1683533.0</v>
+        <v>1675641.0</v>
       </c>
       <c r="AC516" t="n" s="10">
-        <v>10834.0</v>
+        <v>10709.0</v>
       </c>
     </row>
     <row r="517">
@@ -44492,82 +44492,82 @@
         <v>35</v>
       </c>
       <c r="D517" t="n" s="10">
-        <v>3611112.0</v>
+        <v>3614885.0</v>
       </c>
       <c r="E517" t="n" s="10">
-        <v>282563.0</v>
+        <v>283226.0</v>
       </c>
       <c r="F517" t="n" s="10">
-        <v>1706923.0</v>
+        <v>1681824.0</v>
       </c>
       <c r="G517" t="n" s="10">
-        <v>134137.0</v>
+        <v>134346.0</v>
       </c>
       <c r="H517" t="n" s="10">
-        <v>809210.0</v>
+        <v>807558.0</v>
       </c>
       <c r="I517" t="n" s="10">
-        <v>7737713.0</v>
+        <v>7748782.0</v>
       </c>
       <c r="J517" t="n" s="10">
-        <v>517376.0</v>
+        <v>517659.0</v>
       </c>
       <c r="K517" t="n" s="10">
-        <v>543911.0</v>
+        <v>543751.0</v>
       </c>
       <c r="L517" t="n" s="10">
-        <v>4869355.0</v>
+        <v>4778560.0</v>
       </c>
       <c r="M517" t="n" s="10">
-        <v>273761.0</v>
+        <v>273392.0</v>
       </c>
       <c r="N517" t="n" s="10">
-        <v>120688.0</v>
+        <v>121404.0</v>
       </c>
       <c r="O517" t="n" s="10">
-        <v>283542.0</v>
+        <v>283686.0</v>
       </c>
       <c r="P517" t="n" s="10">
-        <v>472155.0</v>
+        <v>472924.0</v>
       </c>
       <c r="Q517" t="n" s="10">
-        <v>40619.0</v>
+        <v>40672.0</v>
       </c>
       <c r="R517" t="n" s="10">
-        <v>6871369.0</v>
+        <v>6903060.0</v>
       </c>
       <c r="S517" t="n" s="10">
-        <v>4835369.0</v>
+        <v>4843870.0</v>
       </c>
       <c r="T517" t="n" s="10">
-        <v>4919624.0</v>
+        <v>4936096.0</v>
       </c>
       <c r="U517" t="n" s="10">
-        <v>641573.0</v>
+        <v>640390.0</v>
       </c>
       <c r="V517" t="n" s="10">
-        <v>1178928.0</v>
+        <v>1181116.0</v>
       </c>
       <c r="W517" t="n" s="10">
-        <v>1918595.0</v>
+        <v>1918058.0</v>
       </c>
       <c r="X517" t="n" s="10">
-        <v>1052062.0</v>
+        <v>1072735.0</v>
       </c>
       <c r="Y517" t="n" s="10">
-        <v>396998.0</v>
+        <v>396642.0</v>
       </c>
       <c r="Z517" t="n" s="10">
-        <v>3082620.0</v>
+        <v>3119774.0</v>
       </c>
       <c r="AA517" t="n" s="10">
-        <v>2988112.0</v>
+        <v>2975306.0</v>
       </c>
       <c r="AB517" t="n" s="10">
-        <v>1839622.0</v>
+        <v>1840140.0</v>
       </c>
       <c r="AC517" t="n" s="10">
-        <v>48168.0</v>
+        <v>48405.0</v>
       </c>
     </row>
     <row r="518">
@@ -44578,82 +44578,82 @@
         <v>35</v>
       </c>
       <c r="D518" t="n" s="10">
-        <v>2890695.0</v>
+        <v>2904765.0</v>
       </c>
       <c r="E518" t="n" s="10">
-        <v>352143.0</v>
+        <v>353753.0</v>
       </c>
       <c r="F518" t="n" s="10">
-        <v>881665.0</v>
+        <v>878528.0</v>
       </c>
       <c r="G518" t="n" s="10">
-        <v>79198.0</v>
+        <v>79114.0</v>
       </c>
       <c r="H518" t="n" s="10">
-        <v>602226.0</v>
+        <v>605163.0</v>
       </c>
       <c r="I518" t="n" s="10">
-        <v>4394959.0</v>
+        <v>4382570.0</v>
       </c>
       <c r="J518" t="n" s="10">
-        <v>203415.0</v>
+        <v>205131.0</v>
       </c>
       <c r="K518" t="n" s="10">
-        <v>2267242.0</v>
+        <v>2265865.0</v>
       </c>
       <c r="L518" t="n" s="10">
-        <v>4364545.0</v>
+        <v>4357271.0</v>
       </c>
       <c r="M518" t="n" s="10">
-        <v>138482.0</v>
+        <v>138167.0</v>
       </c>
       <c r="N518" t="n" s="10">
-        <v>64976.0</v>
+        <v>64607.0</v>
       </c>
       <c r="O518" t="n" s="10">
-        <v>172639.0</v>
+        <v>173850.0</v>
       </c>
       <c r="P518" t="n" s="10">
-        <v>226221.0</v>
+        <v>226500.0</v>
       </c>
       <c r="Q518" t="n" s="10">
-        <v>25437.0</v>
+        <v>25520.0</v>
       </c>
       <c r="R518" t="n" s="10">
-        <v>6770426.0</v>
+        <v>6695836.0</v>
       </c>
       <c r="S518" t="n" s="10">
-        <v>3302138.0</v>
+        <v>3292678.0</v>
       </c>
       <c r="T518" t="n" s="10">
-        <v>4608537.0</v>
+        <v>4595085.0</v>
       </c>
       <c r="U518" t="n" s="10">
-        <v>544635.0</v>
+        <v>544845.0</v>
       </c>
       <c r="V518" t="n" s="10">
-        <v>1067950.0</v>
+        <v>1073667.0</v>
       </c>
       <c r="W518" t="n" s="10">
-        <v>1136909.0</v>
+        <v>1138033.0</v>
       </c>
       <c r="X518" t="n" s="10">
-        <v>1505128.0</v>
+        <v>1510834.0</v>
       </c>
       <c r="Y518" t="n" s="10">
-        <v>477774.0</v>
+        <v>476923.0</v>
       </c>
       <c r="Z518" t="n" s="10">
-        <v>3064551.0</v>
+        <v>3073223.0</v>
       </c>
       <c r="AA518" t="n" s="10">
-        <v>3540120.0</v>
+        <v>3534600.0</v>
       </c>
       <c r="AB518" t="n" s="10">
-        <v>2246934.0</v>
+        <v>2241956.0</v>
       </c>
       <c r="AC518" t="n" s="10">
-        <v>9750.0</v>
+        <v>9752.0</v>
       </c>
     </row>
     <row r="519">
@@ -44667,82 +44667,82 @@
         <v>35</v>
       </c>
       <c r="D519" t="n" s="10">
-        <v>3459420.0</v>
+        <v>3453960.0</v>
       </c>
       <c r="E519" t="n" s="10">
-        <v>291508.0</v>
+        <v>291582.0</v>
       </c>
       <c r="F519" t="n" s="10">
-        <v>1419604.0</v>
+        <v>1418185.0</v>
       </c>
       <c r="G519" t="n" s="10">
-        <v>139545.0</v>
+        <v>139066.0</v>
       </c>
       <c r="H519" t="n" s="10">
-        <v>801796.0</v>
+        <v>799089.0</v>
       </c>
       <c r="I519" t="n" s="10">
-        <v>7733806.0</v>
+        <v>7730237.0</v>
       </c>
       <c r="J519" t="n" s="10">
-        <v>475054.0</v>
+        <v>474690.0</v>
       </c>
       <c r="K519" t="n" s="10">
-        <v>639293.0</v>
+        <v>636437.0</v>
       </c>
       <c r="L519" t="n" s="10">
-        <v>5268848.0</v>
+        <v>5474592.0</v>
       </c>
       <c r="M519" t="n" s="10">
-        <v>294805.0</v>
+        <v>293713.0</v>
       </c>
       <c r="N519" t="n" s="10">
-        <v>134093.0</v>
+        <v>144538.0</v>
       </c>
       <c r="O519" t="n" s="10">
-        <v>310144.0</v>
+        <v>313460.0</v>
       </c>
       <c r="P519" t="n" s="10">
-        <v>518619.0</v>
+        <v>520138.0</v>
       </c>
       <c r="Q519" t="n" s="10">
-        <v>33206.0</v>
+        <v>33040.0</v>
       </c>
       <c r="R519" t="n" s="10">
-        <v>6825150.0</v>
+        <v>6824738.0</v>
       </c>
       <c r="S519" t="n" s="10">
-        <v>4955894.0</v>
+        <v>4947257.0</v>
       </c>
       <c r="T519" t="n" s="10">
-        <v>5357364.0</v>
+        <v>5366038.0</v>
       </c>
       <c r="U519" t="n" s="10">
-        <v>834652.0</v>
+        <v>832777.0</v>
       </c>
       <c r="V519" t="n" s="10">
-        <v>1337034.0</v>
+        <v>1334926.0</v>
       </c>
       <c r="W519" t="n" s="10">
-        <v>1583006.0</v>
+        <v>1576055.0</v>
       </c>
       <c r="X519" t="n" s="10">
-        <v>1056039.0</v>
+        <v>1056025.0</v>
       </c>
       <c r="Y519" t="n" s="10">
-        <v>405463.0</v>
+        <v>403516.0</v>
       </c>
       <c r="Z519" t="n" s="10">
-        <v>3229013.0</v>
+        <v>3253418.0</v>
       </c>
       <c r="AA519" t="n" s="10">
-        <v>3089085.0</v>
+        <v>3076222.0</v>
       </c>
       <c r="AB519" t="n" s="10">
-        <v>2121292.0</v>
+        <v>2107298.0</v>
       </c>
       <c r="AC519" t="n" s="10">
-        <v>51284.0</v>
+        <v>51449.0</v>
       </c>
     </row>
     <row r="520">
@@ -44753,82 +44753,82 @@
         <v>35</v>
       </c>
       <c r="D520" t="n" s="10">
-        <v>2819872.0</v>
+        <v>2777748.0</v>
       </c>
       <c r="E520" t="n" s="10">
-        <v>392285.0</v>
+        <v>391461.0</v>
       </c>
       <c r="F520" t="n" s="10">
-        <v>879712.0</v>
+        <v>886858.0</v>
       </c>
       <c r="G520" t="n" s="10">
-        <v>67895.0</v>
+        <v>69849.0</v>
       </c>
       <c r="H520" t="n" s="10">
-        <v>644900.0</v>
+        <v>641560.0</v>
       </c>
       <c r="I520" t="n" s="10">
-        <v>4335693.0</v>
+        <v>4311202.0</v>
       </c>
       <c r="J520" t="n" s="10">
-        <v>202953.0</v>
+        <v>204449.0</v>
       </c>
       <c r="K520" t="n" s="10">
-        <v>1460848.0</v>
+        <v>1477932.0</v>
       </c>
       <c r="L520" t="n" s="10">
-        <v>4639532.0</v>
+        <v>4647093.0</v>
       </c>
       <c r="M520" t="n" s="10">
-        <v>136057.0</v>
+        <v>135839.0</v>
       </c>
       <c r="N520" t="n" s="10">
-        <v>67268.0</v>
+        <v>68017.0</v>
       </c>
       <c r="O520" t="n" s="10">
-        <v>172299.0</v>
+        <v>187117.0</v>
       </c>
       <c r="P520" t="n" s="10">
-        <v>232749.0</v>
+        <v>233603.0</v>
       </c>
       <c r="Q520" t="n" s="10">
-        <v>29304.0</v>
+        <v>29274.0</v>
       </c>
       <c r="R520" t="n" s="10">
-        <v>6867257.0</v>
+        <v>6798470.0</v>
       </c>
       <c r="S520" t="n" s="10">
-        <v>3704628.0</v>
+        <v>3706115.0</v>
       </c>
       <c r="T520" t="n" s="10">
-        <v>4862354.0</v>
+        <v>4869545.0</v>
       </c>
       <c r="U520" t="n" s="10">
-        <v>559498.0</v>
+        <v>559699.0</v>
       </c>
       <c r="V520" t="n" s="10">
-        <v>1193166.0</v>
+        <v>1203030.0</v>
       </c>
       <c r="W520" t="n" s="10">
-        <v>994642.0</v>
+        <v>993571.0</v>
       </c>
       <c r="X520" t="n" s="10">
-        <v>1052856.0</v>
+        <v>1058543.0</v>
       </c>
       <c r="Y520" t="n" s="10">
-        <v>463929.0</v>
+        <v>463697.0</v>
       </c>
       <c r="Z520" t="n" s="10">
-        <v>2692622.0</v>
+        <v>2698028.0</v>
       </c>
       <c r="AA520" t="n" s="10">
-        <v>3594076.0</v>
+        <v>3596574.0</v>
       </c>
       <c r="AB520" t="n" s="10">
-        <v>2409317.0</v>
+        <v>2409588.0</v>
       </c>
       <c r="AC520" t="n" s="10">
-        <v>9846.0</v>
+        <v>9940.0</v>
       </c>
     </row>
     <row r="521">
@@ -44842,82 +44842,82 @@
         <v>35</v>
       </c>
       <c r="D521" t="n" s="10">
-        <v>3177600.0</v>
+        <v>3179494.0</v>
       </c>
       <c r="E521" t="n" s="10">
-        <v>295204.0</v>
+        <v>295866.0</v>
       </c>
       <c r="F521" t="n" s="10">
-        <v>1452150.0</v>
+        <v>1453519.0</v>
       </c>
       <c r="G521" t="n" s="10">
-        <v>147618.0</v>
+        <v>149081.0</v>
       </c>
       <c r="H521" t="n" s="10">
-        <v>821135.0</v>
+        <v>821392.0</v>
       </c>
       <c r="I521" t="n" s="10">
-        <v>6451259.0</v>
+        <v>6452334.0</v>
       </c>
       <c r="J521" t="n" s="10">
-        <v>442532.0</v>
+        <v>441597.0</v>
       </c>
       <c r="K521" t="n" s="10">
-        <v>556628.0</v>
+        <v>552621.0</v>
       </c>
       <c r="L521" t="n" s="10">
-        <v>3939879.0</v>
+        <v>3927995.0</v>
       </c>
       <c r="M521" t="n" s="10">
-        <v>256578.0</v>
+        <v>256446.0</v>
       </c>
       <c r="N521" t="n" s="10">
-        <v>123613.0</v>
+        <v>124541.0</v>
       </c>
       <c r="O521" t="n" s="10">
-        <v>276559.0</v>
+        <v>276651.0</v>
       </c>
       <c r="P521" t="n" s="10">
-        <v>442933.0</v>
+        <v>444316.0</v>
       </c>
       <c r="Q521" t="n" s="10">
-        <v>29271.0</v>
+        <v>30068.0</v>
       </c>
       <c r="R521" t="n" s="10">
-        <v>6430666.0</v>
+        <v>6438955.0</v>
       </c>
       <c r="S521" t="n" s="10">
-        <v>4751103.0</v>
+        <v>4758166.0</v>
       </c>
       <c r="T521" t="n" s="10">
-        <v>5406674.0</v>
+        <v>5421002.0</v>
       </c>
       <c r="U521" t="n" s="10">
-        <v>642333.0</v>
+        <v>641221.0</v>
       </c>
       <c r="V521" t="n" s="10">
-        <v>1313464.0</v>
+        <v>1313439.0</v>
       </c>
       <c r="W521" t="n" s="10">
-        <v>1835090.0</v>
+        <v>1832039.0</v>
       </c>
       <c r="X521" t="n" s="10">
-        <v>1156711.0</v>
+        <v>1157753.0</v>
       </c>
       <c r="Y521" t="n" s="10">
-        <v>360930.0</v>
+        <v>362256.0</v>
       </c>
       <c r="Z521" t="n" s="10">
-        <v>2521134.0</v>
+        <v>2517748.0</v>
       </c>
       <c r="AA521" t="n" s="10">
-        <v>3128493.0</v>
+        <v>3124288.0</v>
       </c>
       <c r="AB521" t="n" s="10">
-        <v>2118682.0</v>
+        <v>2110907.0</v>
       </c>
       <c r="AC521" t="n" s="10">
-        <v>42944.0</v>
+        <v>43047.0</v>
       </c>
     </row>
     <row r="522">
@@ -44928,82 +44928,82 @@
         <v>35</v>
       </c>
       <c r="D522" t="n" s="10">
-        <v>2763569.0</v>
+        <v>2754313.0</v>
       </c>
       <c r="E522" t="n" s="10">
-        <v>393298.0</v>
+        <v>393055.0</v>
       </c>
       <c r="F522" t="n" s="10">
-        <v>892374.0</v>
+        <v>892767.0</v>
       </c>
       <c r="G522" t="n" s="10">
-        <v>57686.0</v>
+        <v>58479.0</v>
       </c>
       <c r="H522" t="n" s="10">
-        <v>603617.0</v>
+        <v>600498.0</v>
       </c>
       <c r="I522" t="n" s="10">
-        <v>4124173.0</v>
+        <v>4108508.0</v>
       </c>
       <c r="J522" t="n" s="10">
-        <v>175375.0</v>
+        <v>175964.0</v>
       </c>
       <c r="K522" t="n" s="10">
-        <v>2063329.0</v>
+        <v>2061522.0</v>
       </c>
       <c r="L522" t="n" s="10">
-        <v>4106751.0</v>
+        <v>4097555.0</v>
       </c>
       <c r="M522" t="n" s="10">
-        <v>115038.0</v>
+        <v>115138.0</v>
       </c>
       <c r="N522" t="n" s="10">
-        <v>85812.0</v>
+        <v>86035.0</v>
       </c>
       <c r="O522" t="n" s="10">
-        <v>206551.0</v>
+        <v>207776.0</v>
       </c>
       <c r="P522" t="n" s="10">
-        <v>230399.0</v>
+        <v>229898.0</v>
       </c>
       <c r="Q522" t="n" s="10">
-        <v>33041.0</v>
+        <v>32925.0</v>
       </c>
       <c r="R522" t="n" s="10">
-        <v>6648184.0</v>
+        <v>6596507.0</v>
       </c>
       <c r="S522" t="n" s="10">
-        <v>2899686.0</v>
+        <v>2893247.0</v>
       </c>
       <c r="T522" t="n" s="10">
-        <v>4674151.0</v>
+        <v>4685722.0</v>
       </c>
       <c r="U522" t="n" s="10">
-        <v>508212.0</v>
+        <v>507985.0</v>
       </c>
       <c r="V522" t="n" s="10">
-        <v>1052411.0</v>
+        <v>1058373.0</v>
       </c>
       <c r="W522" t="n" s="10">
-        <v>1123257.0</v>
+        <v>1124093.0</v>
       </c>
       <c r="X522" t="n" s="10">
-        <v>1506175.0</v>
+        <v>1505878.0</v>
       </c>
       <c r="Y522" t="n" s="10">
-        <v>405519.0</v>
+        <v>405353.0</v>
       </c>
       <c r="Z522" t="n" s="10">
-        <v>2106855.0</v>
+        <v>2102984.0</v>
       </c>
       <c r="AA522" t="n" s="10">
-        <v>3244449.0</v>
+        <v>3255308.0</v>
       </c>
       <c r="AB522" t="n" s="10">
-        <v>2232285.0</v>
+        <v>2233004.0</v>
       </c>
       <c r="AC522" t="n" s="10">
-        <v>9682.0</v>
+        <v>9541.0</v>
       </c>
     </row>
     <row r="523">
@@ -45017,82 +45017,82 @@
         <v>35</v>
       </c>
       <c r="D523" t="n" s="10">
-        <v>4099089.0</v>
+        <v>4097887.0</v>
       </c>
       <c r="E523" t="n" s="10">
-        <v>326703.0</v>
+        <v>327198.0</v>
       </c>
       <c r="F523" t="n" s="10">
-        <v>1704000.0</v>
+        <v>1700611.0</v>
       </c>
       <c r="G523" t="n" s="10">
-        <v>161239.0</v>
+        <v>161103.0</v>
       </c>
       <c r="H523" t="n" s="10">
-        <v>910364.0</v>
+        <v>910103.0</v>
       </c>
       <c r="I523" t="n" s="10">
-        <v>8383033.0</v>
+        <v>8384507.0</v>
       </c>
       <c r="J523" t="n" s="10">
-        <v>589252.0</v>
+        <v>588237.0</v>
       </c>
       <c r="K523" t="n" s="10">
-        <v>975105.0</v>
+        <v>982416.0</v>
       </c>
       <c r="L523" t="n" s="10">
-        <v>5706141.0</v>
+        <v>5699677.0</v>
       </c>
       <c r="M523" t="n" s="10">
-        <v>302692.0</v>
+        <v>302628.0</v>
       </c>
       <c r="N523" t="n" s="10">
-        <v>134203.0</v>
+        <v>134363.0</v>
       </c>
       <c r="O523" t="n" s="10">
-        <v>321858.0</v>
+        <v>322791.0</v>
       </c>
       <c r="P523" t="n" s="10">
-        <v>473847.0</v>
+        <v>473358.0</v>
       </c>
       <c r="Q523" t="n" s="10">
-        <v>40672.0</v>
+        <v>42000.0</v>
       </c>
       <c r="R523" t="n" s="10">
-        <v>7641612.0</v>
+        <v>7649831.0</v>
       </c>
       <c r="S523" t="n" s="10">
-        <v>5507842.0</v>
+        <v>5501406.0</v>
       </c>
       <c r="T523" t="n" s="10">
-        <v>5952328.0</v>
+        <v>5952369.0</v>
       </c>
       <c r="U523" t="n" s="10">
-        <v>846890.0</v>
+        <v>845552.0</v>
       </c>
       <c r="V523" t="n" s="10">
-        <v>1551682.0</v>
+        <v>1551739.0</v>
       </c>
       <c r="W523" t="n" s="10">
-        <v>2151342.0</v>
+        <v>2148703.0</v>
       </c>
       <c r="X523" t="n" s="10">
-        <v>1304631.0</v>
+        <v>1307148.0</v>
       </c>
       <c r="Y523" t="n" s="10">
-        <v>459027.0</v>
+        <v>458911.0</v>
       </c>
       <c r="Z523" t="n" s="10">
-        <v>3556092.0</v>
+        <v>3586489.0</v>
       </c>
       <c r="AA523" t="n" s="10">
-        <v>3642204.0</v>
+        <v>3632713.0</v>
       </c>
       <c r="AB523" t="n" s="10">
-        <v>2370304.0</v>
+        <v>2357173.0</v>
       </c>
       <c r="AC523" t="n" s="10">
-        <v>45614.0</v>
+        <v>45455.0</v>
       </c>
     </row>
     <row r="524">
@@ -45103,82 +45103,82 @@
         <v>35</v>
       </c>
       <c r="D524" t="n" s="10">
-        <v>3040569.0</v>
+        <v>3031299.0</v>
       </c>
       <c r="E524" t="n" s="10">
-        <v>447569.0</v>
+        <v>450352.0</v>
       </c>
       <c r="F524" t="n" s="10">
-        <v>983220.0</v>
+        <v>980921.0</v>
       </c>
       <c r="G524" t="n" s="10">
-        <v>72707.0</v>
+        <v>73069.0</v>
       </c>
       <c r="H524" t="n" s="10">
-        <v>657734.0</v>
+        <v>655203.0</v>
       </c>
       <c r="I524" t="n" s="10">
-        <v>4759187.0</v>
+        <v>4741929.0</v>
       </c>
       <c r="J524" t="n" s="10">
-        <v>188110.0</v>
+        <v>189140.0</v>
       </c>
       <c r="K524" t="n" s="10">
-        <v>2141018.0</v>
+        <v>2139596.0</v>
       </c>
       <c r="L524" t="n" s="10">
-        <v>4804944.0</v>
+        <v>4799096.0</v>
       </c>
       <c r="M524" t="n" s="10">
-        <v>145536.0</v>
+        <v>145560.0</v>
       </c>
       <c r="N524" t="n" s="10">
-        <v>92896.0</v>
+        <v>92756.0</v>
       </c>
       <c r="O524" t="n" s="10">
-        <v>202609.0</v>
+        <v>204383.0</v>
       </c>
       <c r="P524" t="n" s="10">
-        <v>246680.0</v>
+        <v>248430.0</v>
       </c>
       <c r="Q524" t="n" s="10">
-        <v>27692.0</v>
+        <v>27672.0</v>
       </c>
       <c r="R524" t="n" s="10">
-        <v>7369283.0</v>
+        <v>7299812.0</v>
       </c>
       <c r="S524" t="n" s="10">
-        <v>3641594.0</v>
+        <v>3638734.0</v>
       </c>
       <c r="T524" t="n" s="10">
-        <v>5344987.0</v>
+        <v>5344663.0</v>
       </c>
       <c r="U524" t="n" s="10">
-        <v>616747.0</v>
+        <v>616730.0</v>
       </c>
       <c r="V524" t="n" s="10">
-        <v>1269889.0</v>
+        <v>1279639.0</v>
       </c>
       <c r="W524" t="n" s="10">
-        <v>1257629.0</v>
+        <v>1253016.0</v>
       </c>
       <c r="X524" t="n" s="10">
-        <v>1549667.0</v>
+        <v>1557937.0</v>
       </c>
       <c r="Y524" t="n" s="10">
-        <v>490142.0</v>
+        <v>490717.0</v>
       </c>
       <c r="Z524" t="n" s="10">
-        <v>2741593.0</v>
+        <v>2742962.0</v>
       </c>
       <c r="AA524" t="n" s="10">
-        <v>4019499.0</v>
+        <v>4041378.0</v>
       </c>
       <c r="AB524" t="n" s="10">
-        <v>2809576.0</v>
+        <v>2809122.0</v>
       </c>
       <c r="AC524" t="n" s="10">
-        <v>8220.0</v>
+        <v>8170.0</v>
       </c>
     </row>
     <row r="525">
@@ -45192,82 +45192,82 @@
         <v>35</v>
       </c>
       <c r="D525" t="n" s="10">
-        <v>4198877.0</v>
+        <v>4197615.0</v>
       </c>
       <c r="E525" t="n" s="10">
-        <v>340192.0</v>
+        <v>341494.0</v>
       </c>
       <c r="F525" t="n" s="10">
-        <v>1667481.0</v>
+        <v>1667215.0</v>
       </c>
       <c r="G525" t="n" s="10">
-        <v>159322.0</v>
+        <v>159163.0</v>
       </c>
       <c r="H525" t="n" s="10">
-        <v>911551.0</v>
+        <v>911371.0</v>
       </c>
       <c r="I525" t="n" s="10">
-        <v>8453959.0</v>
+        <v>8451112.0</v>
       </c>
       <c r="J525" t="n" s="10">
-        <v>595984.0</v>
+        <v>595138.0</v>
       </c>
       <c r="K525" t="n" s="10">
-        <v>613523.0</v>
+        <v>612174.0</v>
       </c>
       <c r="L525" t="n" s="10">
-        <v>5857485.0</v>
+        <v>5859666.0</v>
       </c>
       <c r="M525" t="n" s="10">
-        <v>308562.0</v>
+        <v>308165.0</v>
       </c>
       <c r="N525" t="n" s="10">
-        <v>144422.0</v>
+        <v>144834.0</v>
       </c>
       <c r="O525" t="n" s="10">
-        <v>308869.0</v>
+        <v>308914.0</v>
       </c>
       <c r="P525" t="n" s="10">
-        <v>506330.0</v>
+        <v>507696.0</v>
       </c>
       <c r="Q525" t="n" s="10">
-        <v>37048.0</v>
+        <v>37722.0</v>
       </c>
       <c r="R525" t="n" s="10">
-        <v>7296778.0</v>
+        <v>7292648.0</v>
       </c>
       <c r="S525" t="n" s="10">
-        <v>5652507.0</v>
+        <v>5653457.0</v>
       </c>
       <c r="T525" t="n" s="10">
-        <v>6358563.0</v>
+        <v>6357169.0</v>
       </c>
       <c r="U525" t="n" s="10">
-        <v>931967.0</v>
+        <v>930533.0</v>
       </c>
       <c r="V525" t="n" s="10">
-        <v>1576824.0</v>
+        <v>1577577.0</v>
       </c>
       <c r="W525" t="n" s="10">
-        <v>2208472.0</v>
+        <v>2217331.0</v>
       </c>
       <c r="X525" t="n" s="10">
-        <v>1345612.0</v>
+        <v>1344247.0</v>
       </c>
       <c r="Y525" t="n" s="10">
-        <v>460046.0</v>
+        <v>459172.0</v>
       </c>
       <c r="Z525" t="n" s="10">
-        <v>3629365.0</v>
+        <v>3650852.0</v>
       </c>
       <c r="AA525" t="n" s="10">
-        <v>3750232.0</v>
+        <v>3734895.0</v>
       </c>
       <c r="AB525" t="n" s="10">
-        <v>2418098.0</v>
+        <v>2419711.0</v>
       </c>
       <c r="AC525" t="n" s="10">
-        <v>47285.0</v>
+        <v>47215.0</v>
       </c>
     </row>
     <row r="526">
@@ -45278,82 +45278,82 @@
         <v>35</v>
       </c>
       <c r="D526" t="n" s="10">
-        <v>3422076.0</v>
+        <v>3411505.0</v>
       </c>
       <c r="E526" t="n" s="10">
-        <v>437270.0</v>
+        <v>443164.0</v>
       </c>
       <c r="F526" t="n" s="10">
-        <v>977478.0</v>
+        <v>977338.0</v>
       </c>
       <c r="G526" t="n" s="10">
-        <v>67980.0</v>
+        <v>68545.0</v>
       </c>
       <c r="H526" t="n" s="10">
-        <v>649471.0</v>
+        <v>646579.0</v>
       </c>
       <c r="I526" t="n" s="10">
-        <v>5215533.0</v>
+        <v>5201802.0</v>
       </c>
       <c r="J526" t="n" s="10">
-        <v>208495.0</v>
+        <v>208405.0</v>
       </c>
       <c r="K526" t="n" s="10">
-        <v>1626906.0</v>
+        <v>1626765.0</v>
       </c>
       <c r="L526" t="n" s="10">
-        <v>5069869.0</v>
+        <v>5070063.0</v>
       </c>
       <c r="M526" t="n" s="10">
-        <v>148279.0</v>
+        <v>148409.0</v>
       </c>
       <c r="N526" t="n" s="10">
-        <v>87609.0</v>
+        <v>87450.0</v>
       </c>
       <c r="O526" t="n" s="10">
-        <v>214182.0</v>
+        <v>215895.0</v>
       </c>
       <c r="P526" t="n" s="10">
-        <v>228065.0</v>
+        <v>230393.0</v>
       </c>
       <c r="Q526" t="n" s="10">
-        <v>36445.0</v>
+        <v>36376.0</v>
       </c>
       <c r="R526" t="n" s="10">
-        <v>7614974.0</v>
+        <v>7581522.0</v>
       </c>
       <c r="S526" t="n" s="10">
-        <v>3688469.0</v>
+        <v>3689792.0</v>
       </c>
       <c r="T526" t="n" s="10">
-        <v>5573636.0</v>
+        <v>5574746.0</v>
       </c>
       <c r="U526" t="n" s="10">
-        <v>641399.0</v>
+        <v>641355.0</v>
       </c>
       <c r="V526" t="n" s="10">
-        <v>1251246.0</v>
+        <v>1260241.0</v>
       </c>
       <c r="W526" t="n" s="10">
-        <v>1303824.0</v>
+        <v>1303250.0</v>
       </c>
       <c r="X526" t="n" s="10">
-        <v>1458207.0</v>
+        <v>1456930.0</v>
       </c>
       <c r="Y526" t="n" s="10">
-        <v>501503.0</v>
+        <v>502282.0</v>
       </c>
       <c r="Z526" t="n" s="10">
-        <v>2871355.0</v>
+        <v>2869003.0</v>
       </c>
       <c r="AA526" t="n" s="10">
-        <v>4366396.0</v>
+        <v>4368280.0</v>
       </c>
       <c r="AB526" t="n" s="10">
-        <v>2605356.0</v>
+        <v>2609841.0</v>
       </c>
       <c r="AC526" t="n" s="10">
-        <v>8699.0</v>
+        <v>8648.0</v>
       </c>
     </row>
     <row r="527">
@@ -45367,82 +45367,82 @@
         <v>35</v>
       </c>
       <c r="D527" t="n" s="10">
-        <v>3966406.0</v>
+        <v>3961936.0</v>
       </c>
       <c r="E527" t="n" s="10">
-        <v>347533.0</v>
+        <v>348149.0</v>
       </c>
       <c r="F527" t="n" s="10">
-        <v>1653974.0</v>
+        <v>1651819.0</v>
       </c>
       <c r="G527" t="n" s="10">
-        <v>182883.0</v>
+        <v>182773.0</v>
       </c>
       <c r="H527" t="n" s="10">
-        <v>958085.0</v>
+        <v>956466.0</v>
       </c>
       <c r="I527" t="n" s="10">
-        <v>8360093.0</v>
+        <v>8352809.0</v>
       </c>
       <c r="J527" t="n" s="10">
-        <v>560079.0</v>
+        <v>559551.0</v>
       </c>
       <c r="K527" t="n" s="10">
-        <v>683860.0</v>
+        <v>683151.0</v>
       </c>
       <c r="L527" t="n" s="10">
-        <v>5874859.0</v>
+        <v>5867121.0</v>
       </c>
       <c r="M527" t="n" s="10">
-        <v>286529.0</v>
+        <v>285970.0</v>
       </c>
       <c r="N527" t="n" s="10">
-        <v>143911.0</v>
+        <v>144057.0</v>
       </c>
       <c r="O527" t="n" s="10">
-        <v>348971.0</v>
+        <v>348976.0</v>
       </c>
       <c r="P527" t="n" s="10">
-        <v>544233.0</v>
+        <v>545619.0</v>
       </c>
       <c r="Q527" t="n" s="10">
-        <v>41515.0</v>
+        <v>41742.0</v>
       </c>
       <c r="R527" t="n" s="10">
-        <v>7728901.0</v>
+        <v>7726404.0</v>
       </c>
       <c r="S527" t="n" s="10">
-        <v>5571232.0</v>
+        <v>5563196.0</v>
       </c>
       <c r="T527" t="n" s="10">
-        <v>6270337.0</v>
+        <v>6270572.0</v>
       </c>
       <c r="U527" t="n" s="10">
-        <v>834565.0</v>
+        <v>833402.0</v>
       </c>
       <c r="V527" t="n" s="10">
-        <v>1509083.0</v>
+        <v>1507406.0</v>
       </c>
       <c r="W527" t="n" s="10">
-        <v>2248948.0</v>
+        <v>2251381.0</v>
       </c>
       <c r="X527" t="n" s="10">
-        <v>1328719.0</v>
+        <v>1326701.0</v>
       </c>
       <c r="Y527" t="n" s="10">
-        <v>464873.0</v>
+        <v>463948.0</v>
       </c>
       <c r="Z527" t="n" s="10">
-        <v>3595248.0</v>
+        <v>3592364.0</v>
       </c>
       <c r="AA527" t="n" s="10">
-        <v>3790888.0</v>
+        <v>3780655.0</v>
       </c>
       <c r="AB527" t="n" s="10">
-        <v>2298901.0</v>
+        <v>2294793.0</v>
       </c>
       <c r="AC527" t="n" s="10">
-        <v>55662.0</v>
+        <v>56006.0</v>
       </c>
     </row>
     <row r="528">
@@ -45453,82 +45453,82 @@
         <v>35</v>
       </c>
       <c r="D528" t="n" s="10">
-        <v>3382260.0</v>
+        <v>3375842.0</v>
       </c>
       <c r="E528" t="n" s="10">
-        <v>412378.0</v>
+        <v>412868.0</v>
       </c>
       <c r="F528" t="n" s="10">
-        <v>1002775.0</v>
+        <v>1004138.0</v>
       </c>
       <c r="G528" t="n" s="10">
-        <v>76434.0</v>
+        <v>76221.0</v>
       </c>
       <c r="H528" t="n" s="10">
-        <v>673989.0</v>
+        <v>672138.0</v>
       </c>
       <c r="I528" t="n" s="10">
-        <v>5667101.0</v>
+        <v>5656345.0</v>
       </c>
       <c r="J528" t="n" s="10">
-        <v>173913.0</v>
+        <v>173856.0</v>
       </c>
       <c r="K528" t="n" s="10">
-        <v>1359400.0</v>
+        <v>1358612.0</v>
       </c>
       <c r="L528" t="n" s="10">
-        <v>5387913.0</v>
+        <v>5381847.0</v>
       </c>
       <c r="M528" t="n" s="10">
-        <v>151892.0</v>
+        <v>168981.0</v>
       </c>
       <c r="N528" t="n" s="10">
-        <v>88682.0</v>
+        <v>88446.0</v>
       </c>
       <c r="O528" t="n" s="10">
-        <v>214568.0</v>
+        <v>216063.0</v>
       </c>
       <c r="P528" t="n" s="10">
-        <v>246724.0</v>
+        <v>247914.0</v>
       </c>
       <c r="Q528" t="n" s="10">
-        <v>33705.0</v>
+        <v>33780.0</v>
       </c>
       <c r="R528" t="n" s="10">
-        <v>7518371.0</v>
+        <v>7501868.0</v>
       </c>
       <c r="S528" t="n" s="10">
-        <v>3807517.0</v>
+        <v>3803433.0</v>
       </c>
       <c r="T528" t="n" s="10">
-        <v>5955411.0</v>
+        <v>5960516.0</v>
       </c>
       <c r="U528" t="n" s="10">
-        <v>575464.0</v>
+        <v>574675.0</v>
       </c>
       <c r="V528" t="n" s="10">
-        <v>1340423.0</v>
+        <v>1338579.0</v>
       </c>
       <c r="W528" t="n" s="10">
-        <v>1388713.0</v>
+        <v>1389564.0</v>
       </c>
       <c r="X528" t="n" s="10">
-        <v>1594725.0</v>
+        <v>1594093.0</v>
       </c>
       <c r="Y528" t="n" s="10">
-        <v>585850.0</v>
+        <v>586521.0</v>
       </c>
       <c r="Z528" t="n" s="10">
-        <v>3017846.0</v>
+        <v>3021240.0</v>
       </c>
       <c r="AA528" t="n" s="10">
-        <v>4545256.0</v>
+        <v>4542477.0</v>
       </c>
       <c r="AB528" t="n" s="10">
-        <v>2762517.0</v>
+        <v>2758269.0</v>
       </c>
       <c r="AC528" t="n" s="10">
-        <v>10031.0</v>
+        <v>9988.0</v>
       </c>
     </row>
     <row r="529">
@@ -45542,82 +45542,82 @@
         <v>35</v>
       </c>
       <c r="D529" t="n" s="10">
-        <v>3680589.0</v>
+        <v>3664484.0</v>
       </c>
       <c r="E529" t="n" s="10">
-        <v>284202.0</v>
+        <v>283500.0</v>
       </c>
       <c r="F529" t="n" s="10">
-        <v>1499154.0</v>
+        <v>1492160.0</v>
       </c>
       <c r="G529" t="n" s="10">
-        <v>234805.0</v>
+        <v>234138.0</v>
       </c>
       <c r="H529" t="n" s="10">
-        <v>768645.0</v>
+        <v>766219.0</v>
       </c>
       <c r="I529" t="n" s="10">
-        <v>7259995.0</v>
+        <v>7233067.0</v>
       </c>
       <c r="J529" t="n" s="10">
-        <v>517180.0</v>
+        <v>515639.0</v>
       </c>
       <c r="K529" t="n" s="10">
-        <v>696051.0</v>
+        <v>693662.0</v>
       </c>
       <c r="L529" t="n" s="10">
-        <v>4777532.0</v>
+        <v>4755691.0</v>
       </c>
       <c r="M529" t="n" s="10">
-        <v>254914.0</v>
+        <v>253562.0</v>
       </c>
       <c r="N529" t="n" s="10">
-        <v>126749.0</v>
+        <v>126133.0</v>
       </c>
       <c r="O529" t="n" s="10">
-        <v>264456.0</v>
+        <v>263223.0</v>
       </c>
       <c r="P529" t="n" s="10">
-        <v>442985.0</v>
+        <v>441659.0</v>
       </c>
       <c r="Q529" t="n" s="10">
-        <v>34293.0</v>
+        <v>34128.0</v>
       </c>
       <c r="R529" t="n" s="10">
-        <v>7333442.0</v>
+        <v>7299812.0</v>
       </c>
       <c r="S529" t="n" s="10">
-        <v>4586841.0</v>
+        <v>4561783.0</v>
       </c>
       <c r="T529" t="n" s="10">
-        <v>5505517.0</v>
+        <v>5485677.0</v>
       </c>
       <c r="U529" t="n" s="10">
-        <v>624971.0</v>
+        <v>622036.0</v>
       </c>
       <c r="V529" t="n" s="10">
-        <v>1274397.0</v>
+        <v>1270239.0</v>
       </c>
       <c r="W529" t="n" s="10">
-        <v>1939565.0</v>
+        <v>1932875.0</v>
       </c>
       <c r="X529" t="n" s="10">
-        <v>1076714.0</v>
+        <v>1071991.0</v>
       </c>
       <c r="Y529" t="n" s="10">
-        <v>373951.0</v>
+        <v>371834.0</v>
       </c>
       <c r="Z529" t="n" s="10">
-        <v>2972497.0</v>
+        <v>2987327.0</v>
       </c>
       <c r="AA529" t="n" s="10">
-        <v>3187216.0</v>
+        <v>3171662.0</v>
       </c>
       <c r="AB529" t="n" s="10">
-        <v>1921545.0</v>
+        <v>1912388.0</v>
       </c>
       <c r="AC529" t="n" s="10">
-        <v>54542.0</v>
+        <v>54326.0</v>
       </c>
     </row>
     <row r="530">
@@ -45628,82 +45628,82 @@
         <v>35</v>
       </c>
       <c r="D530" t="n" s="10">
-        <v>2962210.0</v>
+        <v>2943594.0</v>
       </c>
       <c r="E530" t="n" s="10">
-        <v>346676.0</v>
+        <v>344874.0</v>
       </c>
       <c r="F530" t="n" s="10">
-        <v>870900.0</v>
+        <v>863902.0</v>
       </c>
       <c r="G530" t="n" s="10">
-        <v>62480.0</v>
+        <v>61898.0</v>
       </c>
       <c r="H530" t="n" s="10">
-        <v>678782.0</v>
+        <v>673456.0</v>
       </c>
       <c r="I530" t="n" s="10">
-        <v>4606438.0</v>
+        <v>4574854.0</v>
       </c>
       <c r="J530" t="n" s="10">
-        <v>162301.0</v>
+        <v>169508.0</v>
       </c>
       <c r="K530" t="n" s="10">
-        <v>1878032.0</v>
+        <v>1875143.0</v>
       </c>
       <c r="L530" t="n" s="10">
-        <v>4392990.0</v>
+        <v>4361564.0</v>
       </c>
       <c r="M530" t="n" s="10">
-        <v>121253.0</v>
+        <v>120105.0</v>
       </c>
       <c r="N530" t="n" s="10">
-        <v>62556.0</v>
+        <v>61815.0</v>
       </c>
       <c r="O530" t="n" s="10">
-        <v>197526.0</v>
+        <v>199867.0</v>
       </c>
       <c r="P530" t="n" s="10">
-        <v>222743.0</v>
+        <v>221923.0</v>
       </c>
       <c r="Q530" t="n" s="10">
-        <v>31406.0</v>
+        <v>31330.0</v>
       </c>
       <c r="R530" t="n" s="10">
-        <v>7444057.0</v>
+        <v>7400634.0</v>
       </c>
       <c r="S530" t="n" s="10">
-        <v>3305950.0</v>
+        <v>3283084.0</v>
       </c>
       <c r="T530" t="n" s="10">
-        <v>5313709.0</v>
+        <v>5294234.0</v>
       </c>
       <c r="U530" t="n" s="10">
-        <v>476962.0</v>
+        <v>475675.0</v>
       </c>
       <c r="V530" t="n" s="10">
-        <v>1068964.0</v>
+        <v>1062224.0</v>
       </c>
       <c r="W530" t="n" s="10">
-        <v>1222025.0</v>
+        <v>1214553.0</v>
       </c>
       <c r="X530" t="n" s="10">
-        <v>1242155.0</v>
+        <v>1232417.0</v>
       </c>
       <c r="Y530" t="n" s="10">
-        <v>451841.0</v>
+        <v>447830.0</v>
       </c>
       <c r="Z530" t="n" s="10">
-        <v>2570483.0</v>
+        <v>2556967.0</v>
       </c>
       <c r="AA530" t="n" s="10">
-        <v>3873042.0</v>
+        <v>3853659.0</v>
       </c>
       <c r="AB530" t="n" s="10">
-        <v>2293518.0</v>
+        <v>2276600.0</v>
       </c>
       <c r="AC530" t="n" s="10">
-        <v>16702.0</v>
+        <v>16602.0</v>
       </c>
     </row>
     <row r="531" ht="50.6" customHeight="true">
@@ -45722,82 +45722,82 @@
         <v>35</v>
       </c>
       <c r="D532" t="n" s="10">
-        <v>3837777.0</v>
+        <v>3844624.0</v>
       </c>
       <c r="E532" t="n" s="10">
-        <v>310667.0</v>
+        <v>310684.0</v>
       </c>
       <c r="F532" t="n" s="10">
-        <v>1573658.0</v>
+        <v>1580825.0</v>
       </c>
       <c r="G532" t="n" s="10">
-        <v>147442.0</v>
+        <v>147492.0</v>
       </c>
       <c r="H532" t="n" s="10">
-        <v>834024.0</v>
+        <v>836864.0</v>
       </c>
       <c r="I532" t="n" s="10">
-        <v>7858427.0</v>
+        <v>7850031.0</v>
       </c>
       <c r="J532" t="n" s="10">
-        <v>537125.0</v>
+        <v>537512.0</v>
       </c>
       <c r="K532" t="n" s="10">
-        <v>606488.0</v>
+        <v>608079.0</v>
       </c>
       <c r="L532" t="n" s="10">
-        <v>5389319.0</v>
+        <v>5383699.0</v>
       </c>
       <c r="M532" t="n" s="10">
-        <v>265171.0</v>
+        <v>264700.0</v>
       </c>
       <c r="N532" t="n" s="10">
-        <v>123684.0</v>
+        <v>123765.0</v>
       </c>
       <c r="O532" t="n" s="10">
-        <v>267518.0</v>
+        <v>265625.0</v>
       </c>
       <c r="P532" t="n" s="10">
-        <v>460324.0</v>
+        <v>460984.0</v>
       </c>
       <c r="Q532" t="n" s="10">
-        <v>34740.0</v>
+        <v>34567.0</v>
       </c>
       <c r="R532" t="n" s="10">
-        <v>7346149.0</v>
+        <v>7347080.0</v>
       </c>
       <c r="S532" t="n" s="10">
-        <v>4869477.0</v>
+        <v>4866859.0</v>
       </c>
       <c r="T532" t="n" s="10">
-        <v>5665097.0</v>
+        <v>5665098.0</v>
       </c>
       <c r="U532" t="n" s="10">
-        <v>812481.0</v>
+        <v>811404.0</v>
       </c>
       <c r="V532" t="n" s="10">
-        <v>1388925.0</v>
+        <v>1385830.0</v>
       </c>
       <c r="W532" t="n" s="10">
-        <v>1900410.0</v>
+        <v>1898389.0</v>
       </c>
       <c r="X532" t="n" s="10">
-        <v>1195272.0</v>
+        <v>1200806.0</v>
       </c>
       <c r="Y532" t="n" s="10">
-        <v>425682.0</v>
+        <v>425816.0</v>
       </c>
       <c r="Z532" t="n" s="10">
-        <v>3359639.0</v>
+        <v>3358415.0</v>
       </c>
       <c r="AA532" t="n" s="10">
-        <v>3422385.0</v>
+        <v>3420671.0</v>
       </c>
       <c r="AB532" t="n" s="10">
-        <v>1943087.0</v>
+        <v>1945619.0</v>
       </c>
       <c r="AC532" t="n" s="10">
-        <v>48539.0</v>
+        <v>48747.0</v>
       </c>
     </row>
     <row r="533">
@@ -45808,82 +45808,82 @@
         <v>35</v>
       </c>
       <c r="D533" t="n" s="10">
-        <v>3125044.0</v>
+        <v>3124495.0</v>
       </c>
       <c r="E533" t="n" s="10">
-        <v>403294.0</v>
+        <v>403341.0</v>
       </c>
       <c r="F533" t="n" s="10">
-        <v>892130.0</v>
+        <v>890282.0</v>
       </c>
       <c r="G533" t="n" s="10">
-        <v>56468.0</v>
+        <v>56383.0</v>
       </c>
       <c r="H533" t="n" s="10">
-        <v>557535.0</v>
+        <v>555853.0</v>
       </c>
       <c r="I533" t="n" s="10">
-        <v>4447049.0</v>
+        <v>4438425.0</v>
       </c>
       <c r="J533" t="n" s="10">
-        <v>184543.0</v>
+        <v>192265.0</v>
       </c>
       <c r="K533" t="n" s="10">
-        <v>1219910.0</v>
+        <v>1218930.0</v>
       </c>
       <c r="L533" t="n" s="10">
-        <v>4459327.0</v>
+        <v>4454261.0</v>
       </c>
       <c r="M533" t="n" s="10">
-        <v>124108.0</v>
+        <v>124460.0</v>
       </c>
       <c r="N533" t="n" s="10">
-        <v>67163.0</v>
+        <v>67112.0</v>
       </c>
       <c r="O533" t="n" s="10">
-        <v>174064.0</v>
+        <v>174494.0</v>
       </c>
       <c r="P533" t="n" s="10">
-        <v>242548.0</v>
+        <v>243922.0</v>
       </c>
       <c r="Q533" t="n" s="10">
-        <v>32564.0</v>
+        <v>32398.0</v>
       </c>
       <c r="R533" t="n" s="10">
-        <v>7050809.0</v>
+        <v>7047246.0</v>
       </c>
       <c r="S533" t="n" s="10">
-        <v>3342597.0</v>
+        <v>3344945.0</v>
       </c>
       <c r="T533" t="n" s="10">
-        <v>5082375.0</v>
+        <v>5089869.0</v>
       </c>
       <c r="U533" t="n" s="10">
-        <v>518354.0</v>
+        <v>517681.0</v>
       </c>
       <c r="V533" t="n" s="10">
-        <v>1104720.0</v>
+        <v>1110242.0</v>
       </c>
       <c r="W533" t="n" s="10">
-        <v>1190012.0</v>
+        <v>1199734.0</v>
       </c>
       <c r="X533" t="n" s="10">
-        <v>1173737.0</v>
+        <v>1173204.0</v>
       </c>
       <c r="Y533" t="n" s="10">
-        <v>508133.0</v>
+        <v>507664.0</v>
       </c>
       <c r="Z533" t="n" s="10">
-        <v>2403713.0</v>
+        <v>2399417.0</v>
       </c>
       <c r="AA533" t="n" s="10">
-        <v>3735345.0</v>
+        <v>3732185.0</v>
       </c>
       <c r="AB533" t="n" s="10">
-        <v>2066056.0</v>
+        <v>2066118.0</v>
       </c>
       <c r="AC533" t="n" s="10">
-        <v>10280.0</v>
+        <v>10242.0</v>
       </c>
     </row>
     <row r="534">
@@ -45897,82 +45897,82 @@
         <v>35</v>
       </c>
       <c r="D534" t="n" s="10">
-        <v>3912414.0</v>
+        <v>3945914.0</v>
       </c>
       <c r="E534" t="n" s="10">
-        <v>353789.0</v>
+        <v>354931.0</v>
       </c>
       <c r="F534" t="n" s="10">
-        <v>1592938.0</v>
+        <v>1601659.0</v>
       </c>
       <c r="G534" t="n" s="10">
-        <v>155777.0</v>
+        <v>155912.0</v>
       </c>
       <c r="H534" t="n" s="10">
-        <v>881558.0</v>
+        <v>888444.0</v>
       </c>
       <c r="I534" t="n" s="10">
-        <v>8132169.0</v>
+        <v>8122789.0</v>
       </c>
       <c r="J534" t="n" s="10">
-        <v>514738.0</v>
+        <v>513944.0</v>
       </c>
       <c r="K534" t="n" s="10">
-        <v>575699.0</v>
+        <v>580201.0</v>
       </c>
       <c r="L534" t="n" s="10">
-        <v>5898187.0</v>
+        <v>5897132.0</v>
       </c>
       <c r="M534" t="n" s="10">
-        <v>295943.0</v>
+        <v>295412.0</v>
       </c>
       <c r="N534" t="n" s="10">
-        <v>139988.0</v>
+        <v>141021.0</v>
       </c>
       <c r="O534" t="n" s="10">
-        <v>302875.0</v>
+        <v>302905.0</v>
       </c>
       <c r="P534" t="n" s="10">
-        <v>501601.0</v>
+        <v>498864.0</v>
       </c>
       <c r="Q534" t="n" s="10">
-        <v>36853.0</v>
+        <v>36725.0</v>
       </c>
       <c r="R534" t="n" s="10">
-        <v>7725857.0</v>
+        <v>7662178.0</v>
       </c>
       <c r="S534" t="n" s="10">
-        <v>5520447.0</v>
+        <v>5532711.0</v>
       </c>
       <c r="T534" t="n" s="10">
-        <v>6159153.0</v>
+        <v>6160848.0</v>
       </c>
       <c r="U534" t="n" s="10">
-        <v>805549.0</v>
+        <v>800599.0</v>
       </c>
       <c r="V534" t="n" s="10">
-        <v>1466679.0</v>
+        <v>1465310.0</v>
       </c>
       <c r="W534" t="n" s="10">
-        <v>2150452.0</v>
+        <v>2152167.0</v>
       </c>
       <c r="X534" t="n" s="10">
-        <v>1293359.0</v>
+        <v>1299615.0</v>
       </c>
       <c r="Y534" t="n" s="10">
-        <v>471050.0</v>
+        <v>471408.0</v>
       </c>
       <c r="Z534" t="n" s="10">
-        <v>3443078.0</v>
+        <v>3451604.0</v>
       </c>
       <c r="AA534" t="n" s="10">
-        <v>3656619.0</v>
+        <v>3654638.0</v>
       </c>
       <c r="AB534" t="n" s="10">
-        <v>2328052.0</v>
+        <v>2328666.0</v>
       </c>
       <c r="AC534" t="n" s="10">
-        <v>45279.0</v>
+        <v>45446.0</v>
       </c>
     </row>
     <row r="535">
@@ -45983,82 +45983,82 @@
         <v>35</v>
       </c>
       <c r="D535" t="n" s="10">
-        <v>3281999.0</v>
+        <v>3285343.0</v>
       </c>
       <c r="E535" t="n" s="10">
-        <v>411213.0</v>
+        <v>412127.0</v>
       </c>
       <c r="F535" t="n" s="10">
-        <v>912794.0</v>
+        <v>906942.0</v>
       </c>
       <c r="G535" t="n" s="10">
-        <v>65392.0</v>
+        <v>65938.0</v>
       </c>
       <c r="H535" t="n" s="10">
-        <v>736904.0</v>
+        <v>736827.0</v>
       </c>
       <c r="I535" t="n" s="10">
-        <v>4939436.0</v>
+        <v>4923343.0</v>
       </c>
       <c r="J535" t="n" s="10">
-        <v>213631.0</v>
+        <v>224506.0</v>
       </c>
       <c r="K535" t="n" s="10">
-        <v>1603612.0</v>
+        <v>1606034.0</v>
       </c>
       <c r="L535" t="n" s="10">
-        <v>5251935.0</v>
+        <v>5241837.0</v>
       </c>
       <c r="M535" t="n" s="10">
-        <v>144600.0</v>
+        <v>144333.0</v>
       </c>
       <c r="N535" t="n" s="10">
-        <v>73621.0</v>
+        <v>73782.0</v>
       </c>
       <c r="O535" t="n" s="10">
-        <v>197528.0</v>
+        <v>198238.0</v>
       </c>
       <c r="P535" t="n" s="10">
-        <v>264034.0</v>
+        <v>264442.0</v>
       </c>
       <c r="Q535" t="n" s="10">
-        <v>35504.0</v>
+        <v>35094.0</v>
       </c>
       <c r="R535" t="n" s="10">
-        <v>7843880.0</v>
+        <v>7800454.0</v>
       </c>
       <c r="S535" t="n" s="10">
-        <v>3687363.0</v>
+        <v>3676899.0</v>
       </c>
       <c r="T535" t="n" s="10">
-        <v>5453386.0</v>
+        <v>5451471.0</v>
       </c>
       <c r="U535" t="n" s="10">
-        <v>525125.0</v>
+        <v>523028.0</v>
       </c>
       <c r="V535" t="n" s="10">
-        <v>1274069.0</v>
+        <v>1274549.0</v>
       </c>
       <c r="W535" t="n" s="10">
-        <v>1328101.0</v>
+        <v>1321645.0</v>
       </c>
       <c r="X535" t="n" s="10">
-        <v>1656634.0</v>
+        <v>1659729.0</v>
       </c>
       <c r="Y535" t="n" s="10">
-        <v>531402.0</v>
+        <v>528873.0</v>
       </c>
       <c r="Z535" t="n" s="10">
-        <v>2649373.0</v>
+        <v>2658899.0</v>
       </c>
       <c r="AA535" t="n" s="10">
-        <v>3998567.0</v>
+        <v>3986515.0</v>
       </c>
       <c r="AB535" t="n" s="10">
-        <v>2615339.0</v>
+        <v>2611441.0</v>
       </c>
       <c r="AC535" t="n" s="10">
-        <v>8421.0</v>
+        <v>8326.0</v>
       </c>
     </row>
     <row r="536">
@@ -46072,82 +46072,82 @@
         <v>35</v>
       </c>
       <c r="D536" t="n" s="10">
-        <v>4414524.0</v>
+        <v>4459287.0</v>
       </c>
       <c r="E536" t="n" s="10">
-        <v>415915.0</v>
+        <v>418587.0</v>
       </c>
       <c r="F536" t="n" s="10">
-        <v>1783539.0</v>
+        <v>1793795.0</v>
       </c>
       <c r="G536" t="n" s="10">
-        <v>207520.0</v>
+        <v>208073.0</v>
       </c>
       <c r="H536" t="n" s="10">
-        <v>1050201.0</v>
+        <v>1055699.0</v>
       </c>
       <c r="I536" t="n" s="10">
-        <v>9497091.0</v>
+        <v>9503351.0</v>
       </c>
       <c r="J536" t="n" s="10">
-        <v>627120.0</v>
+        <v>632219.0</v>
       </c>
       <c r="K536" t="n" s="10">
-        <v>767911.0</v>
+        <v>776211.0</v>
       </c>
       <c r="L536" t="n" s="10">
-        <v>6845849.0</v>
+        <v>6860075.0</v>
       </c>
       <c r="M536" t="n" s="10">
-        <v>350021.0</v>
+        <v>353336.0</v>
       </c>
       <c r="N536" t="n" s="10">
-        <v>163596.0</v>
+        <v>166424.0</v>
       </c>
       <c r="O536" t="n" s="10">
-        <v>388488.0</v>
+        <v>392086.0</v>
       </c>
       <c r="P536" t="n" s="10">
-        <v>606583.0</v>
+        <v>612092.0</v>
       </c>
       <c r="Q536" t="n" s="10">
-        <v>41692.0</v>
+        <v>41594.0</v>
       </c>
       <c r="R536" t="n" s="10">
-        <v>9046349.0</v>
+        <v>9039106.0</v>
       </c>
       <c r="S536" t="n" s="10">
-        <v>6506239.0</v>
+        <v>6537284.0</v>
       </c>
       <c r="T536" t="n" s="10">
-        <v>6996456.0</v>
+        <v>7027400.0</v>
       </c>
       <c r="U536" t="n" s="10">
-        <v>968018.0</v>
+        <v>966332.0</v>
       </c>
       <c r="V536" t="n" s="10">
-        <v>1658200.0</v>
+        <v>1665181.0</v>
       </c>
       <c r="W536" t="n" s="10">
-        <v>2435218.0</v>
+        <v>2445272.0</v>
       </c>
       <c r="X536" t="n" s="10">
-        <v>1456207.0</v>
+        <v>1458943.0</v>
       </c>
       <c r="Y536" t="n" s="10">
-        <v>547843.0</v>
+        <v>547739.0</v>
       </c>
       <c r="Z536" t="n" s="10">
-        <v>3952796.0</v>
+        <v>3965079.0</v>
       </c>
       <c r="AA536" t="n" s="10">
-        <v>4209778.0</v>
+        <v>4215593.0</v>
       </c>
       <c r="AB536" t="n" s="10">
-        <v>2660505.0</v>
+        <v>2671905.0</v>
       </c>
       <c r="AC536" t="n" s="10">
-        <v>54654.0</v>
+        <v>54605.0</v>
       </c>
     </row>
     <row r="537">
@@ -46158,82 +46158,82 @@
         <v>35</v>
       </c>
       <c r="D537" t="n" s="10">
-        <v>4244351.0</v>
+        <v>4258058.0</v>
       </c>
       <c r="E537" t="n" s="10">
-        <v>533398.0</v>
+        <v>531914.0</v>
       </c>
       <c r="F537" t="n" s="10">
-        <v>1075099.0</v>
+        <v>1068368.0</v>
       </c>
       <c r="G537" t="n" s="10">
-        <v>65101.0</v>
+        <v>66821.0</v>
       </c>
       <c r="H537" t="n" s="10">
-        <v>747045.0</v>
+        <v>737871.0</v>
       </c>
       <c r="I537" t="n" s="10">
-        <v>5819709.0</v>
+        <v>5782509.0</v>
       </c>
       <c r="J537" t="n" s="10">
-        <v>220269.0</v>
+        <v>244603.0</v>
       </c>
       <c r="K537" t="n" s="10">
-        <v>2249050.0</v>
+        <v>2246657.0</v>
       </c>
       <c r="L537" t="n" s="10">
-        <v>5939991.0</v>
+        <v>5952220.0</v>
       </c>
       <c r="M537" t="n" s="10">
-        <v>163289.0</v>
+        <v>172631.0</v>
       </c>
       <c r="N537" t="n" s="10">
-        <v>87019.0</v>
+        <v>87689.0</v>
       </c>
       <c r="O537" t="n" s="10">
-        <v>226211.0</v>
+        <v>231331.0</v>
       </c>
       <c r="P537" t="n" s="10">
-        <v>296382.0</v>
+        <v>294277.0</v>
       </c>
       <c r="Q537" t="n" s="10">
-        <v>41127.0</v>
+        <v>40262.0</v>
       </c>
       <c r="R537" t="n" s="10">
-        <v>9050121.0</v>
+        <v>8990179.0</v>
       </c>
       <c r="S537" t="n" s="10">
-        <v>4292399.0</v>
+        <v>4285099.0</v>
       </c>
       <c r="T537" t="n" s="10">
-        <v>6181292.0</v>
+        <v>6165602.0</v>
       </c>
       <c r="U537" t="n" s="10">
-        <v>623655.0</v>
+        <v>619154.0</v>
       </c>
       <c r="V537" t="n" s="10">
-        <v>1415104.0</v>
+        <v>1410557.0</v>
       </c>
       <c r="W537" t="n" s="10">
-        <v>1531034.0</v>
+        <v>1532172.0</v>
       </c>
       <c r="X537" t="n" s="10">
-        <v>1746223.0</v>
+        <v>1740519.0</v>
       </c>
       <c r="Y537" t="n" s="10">
-        <v>636578.0</v>
+        <v>633154.0</v>
       </c>
       <c r="Z537" t="n" s="10">
-        <v>3340948.0</v>
+        <v>3346397.0</v>
       </c>
       <c r="AA537" t="n" s="10">
-        <v>4660846.0</v>
+        <v>4641228.0</v>
       </c>
       <c r="AB537" t="n" s="10">
-        <v>2854088.0</v>
+        <v>2851623.0</v>
       </c>
       <c r="AC537" t="n" s="10">
-        <v>15310.0</v>
+        <v>16158.0</v>
       </c>
     </row>
     <row r="538">
@@ -46247,82 +46247,82 @@
         <v>35</v>
       </c>
       <c r="D538" t="n" s="10">
-        <v>4273548.0</v>
+        <v>4303238.0</v>
       </c>
       <c r="E538" t="n" s="10">
-        <v>355307.0</v>
+        <v>357026.0</v>
       </c>
       <c r="F538" t="n" s="10">
-        <v>1559834.0</v>
+        <v>1564999.0</v>
       </c>
       <c r="G538" t="n" s="10">
-        <v>190827.0</v>
+        <v>190576.0</v>
       </c>
       <c r="H538" t="n" s="10">
-        <v>969066.0</v>
+        <v>966871.0</v>
       </c>
       <c r="I538" t="n" s="10">
-        <v>8417948.0</v>
+        <v>8408276.0</v>
       </c>
       <c r="J538" t="n" s="10">
-        <v>534699.0</v>
+        <v>533530.0</v>
       </c>
       <c r="K538" t="n" s="10">
-        <v>649790.0</v>
+        <v>657947.0</v>
       </c>
       <c r="L538" t="n" s="10">
-        <v>6092710.0</v>
+        <v>6105061.0</v>
       </c>
       <c r="M538" t="n" s="10">
-        <v>309852.0</v>
+        <v>310616.0</v>
       </c>
       <c r="N538" t="n" s="10">
-        <v>183584.0</v>
+        <v>184528.0</v>
       </c>
       <c r="O538" t="n" s="10">
-        <v>324968.0</v>
+        <v>327600.0</v>
       </c>
       <c r="P538" t="n" s="10">
-        <v>527497.0</v>
+        <v>529386.0</v>
       </c>
       <c r="Q538" t="n" s="10">
-        <v>40351.0</v>
+        <v>40730.0</v>
       </c>
       <c r="R538" t="n" s="10">
-        <v>7716282.0</v>
+        <v>7702651.0</v>
       </c>
       <c r="S538" t="n" s="10">
-        <v>5912151.0</v>
+        <v>5914486.0</v>
       </c>
       <c r="T538" t="n" s="10">
-        <v>6200975.0</v>
+        <v>6194445.0</v>
       </c>
       <c r="U538" t="n" s="10">
-        <v>835478.0</v>
+        <v>831926.0</v>
       </c>
       <c r="V538" t="n" s="10">
-        <v>1502935.0</v>
+        <v>1501149.0</v>
       </c>
       <c r="W538" t="n" s="10">
-        <v>2210213.0</v>
+        <v>2204329.0</v>
       </c>
       <c r="X538" t="n" s="10">
-        <v>1331582.0</v>
+        <v>1324533.0</v>
       </c>
       <c r="Y538" t="n" s="10">
-        <v>482416.0</v>
+        <v>480672.0</v>
       </c>
       <c r="Z538" t="n" s="10">
-        <v>3727900.0</v>
+        <v>3726025.0</v>
       </c>
       <c r="AA538" t="n" s="10">
-        <v>3878855.0</v>
+        <v>3874341.0</v>
       </c>
       <c r="AB538" t="n" s="10">
-        <v>2342592.0</v>
+        <v>2340034.0</v>
       </c>
       <c r="AC538" t="n" s="10">
-        <v>56971.0</v>
+        <v>56884.0</v>
       </c>
     </row>
     <row r="539">
@@ -46333,82 +46333,82 @@
         <v>35</v>
       </c>
       <c r="D539" t="n" s="10">
-        <v>4460643.0</v>
+        <v>4452964.0</v>
       </c>
       <c r="E539" t="n" s="10">
-        <v>418268.0</v>
+        <v>416958.0</v>
       </c>
       <c r="F539" t="n" s="10">
-        <v>984382.0</v>
+        <v>967085.0</v>
       </c>
       <c r="G539" t="n" s="10">
-        <v>62315.0</v>
+        <v>64281.0</v>
       </c>
       <c r="H539" t="n" s="10">
-        <v>632138.0</v>
+        <v>626481.0</v>
       </c>
       <c r="I539" t="n" s="10">
-        <v>4946892.0</v>
+        <v>4920305.0</v>
       </c>
       <c r="J539" t="n" s="10">
-        <v>198588.0</v>
+        <v>225436.0</v>
       </c>
       <c r="K539" t="n" s="10">
-        <v>1453832.0</v>
+        <v>1449558.0</v>
       </c>
       <c r="L539" t="n" s="10">
-        <v>5281378.0</v>
+        <v>5287765.0</v>
       </c>
       <c r="M539" t="n" s="10">
-        <v>149178.0</v>
+        <v>151323.0</v>
       </c>
       <c r="N539" t="n" s="10">
-        <v>78595.0</v>
+        <v>81535.0</v>
       </c>
       <c r="O539" t="n" s="10">
-        <v>191304.0</v>
+        <v>194427.0</v>
       </c>
       <c r="P539" t="n" s="10">
-        <v>270559.0</v>
+        <v>279086.0</v>
       </c>
       <c r="Q539" t="n" s="10">
-        <v>40796.0</v>
+        <v>40720.0</v>
       </c>
       <c r="R539" t="n" s="10">
-        <v>7990947.0</v>
+        <v>7938010.0</v>
       </c>
       <c r="S539" t="n" s="10">
-        <v>3767041.0</v>
+        <v>3757221.0</v>
       </c>
       <c r="T539" t="n" s="10">
-        <v>5426859.0</v>
+        <v>5414618.0</v>
       </c>
       <c r="U539" t="n" s="10">
-        <v>574515.0</v>
+        <v>576603.0</v>
       </c>
       <c r="V539" t="n" s="10">
-        <v>1275102.0</v>
+        <v>1265437.0</v>
       </c>
       <c r="W539" t="n" s="10">
-        <v>1268033.0</v>
+        <v>1260631.0</v>
       </c>
       <c r="X539" t="n" s="10">
-        <v>1340150.0</v>
+        <v>1334753.0</v>
       </c>
       <c r="Y539" t="n" s="10">
-        <v>562383.0</v>
+        <v>558480.0</v>
       </c>
       <c r="Z539" t="n" s="10">
-        <v>2892998.0</v>
+        <v>2873770.0</v>
       </c>
       <c r="AA539" t="n" s="10">
-        <v>4271981.0</v>
+        <v>4251207.0</v>
       </c>
       <c r="AB539" t="n" s="10">
-        <v>2483422.0</v>
+        <v>2477986.0</v>
       </c>
       <c r="AC539" t="n" s="10">
-        <v>10310.0</v>
+        <v>20165.0</v>
       </c>
     </row>
     <row r="540">
@@ -46422,82 +46422,82 @@
         <v>35</v>
       </c>
       <c r="D540" t="n" s="10">
-        <v>4051597.0</v>
+        <v>4074343.0</v>
       </c>
       <c r="E540" t="n" s="10">
-        <v>369408.0</v>
+        <v>371104.0</v>
       </c>
       <c r="F540" t="n" s="10">
-        <v>1640200.0</v>
+        <v>1652513.0</v>
       </c>
       <c r="G540" t="n" s="10">
-        <v>187347.0</v>
+        <v>187091.0</v>
       </c>
       <c r="H540" t="n" s="10">
-        <v>970672.0</v>
+        <v>968874.0</v>
       </c>
       <c r="I540" t="n" s="10">
-        <v>8350477.0</v>
+        <v>8326312.0</v>
       </c>
       <c r="J540" t="n" s="10">
-        <v>514221.0</v>
+        <v>515108.0</v>
       </c>
       <c r="K540" t="n" s="10">
-        <v>631131.0</v>
+        <v>637061.0</v>
       </c>
       <c r="L540" t="n" s="10">
-        <v>6133675.0</v>
+        <v>6140423.0</v>
       </c>
       <c r="M540" t="n" s="10">
-        <v>323693.0</v>
+        <v>325310.0</v>
       </c>
       <c r="N540" t="n" s="10">
-        <v>164817.0</v>
+        <v>165761.0</v>
       </c>
       <c r="O540" t="n" s="10">
-        <v>347640.0</v>
+        <v>355274.0</v>
       </c>
       <c r="P540" t="n" s="10">
-        <v>575154.0</v>
+        <v>575974.0</v>
       </c>
       <c r="Q540" t="n" s="10">
-        <v>36518.0</v>
+        <v>36001.0</v>
       </c>
       <c r="R540" t="n" s="10">
-        <v>7955671.0</v>
+        <v>7925075.0</v>
       </c>
       <c r="S540" t="n" s="10">
-        <v>5791003.0</v>
+        <v>5789097.0</v>
       </c>
       <c r="T540" t="n" s="10">
-        <v>6259997.0</v>
+        <v>6324745.0</v>
       </c>
       <c r="U540" t="n" s="10">
-        <v>810971.0</v>
+        <v>805549.0</v>
       </c>
       <c r="V540" t="n" s="10">
-        <v>1468528.0</v>
+        <v>1459757.0</v>
       </c>
       <c r="W540" t="n" s="10">
-        <v>2228609.0</v>
+        <v>2231227.0</v>
       </c>
       <c r="X540" t="n" s="10">
-        <v>1240812.0</v>
+        <v>1233827.0</v>
       </c>
       <c r="Y540" t="n" s="10">
-        <v>505791.0</v>
+        <v>505973.0</v>
       </c>
       <c r="Z540" t="n" s="10">
-        <v>3712184.0</v>
+        <v>3700238.0</v>
       </c>
       <c r="AA540" t="n" s="10">
-        <v>3988697.0</v>
+        <v>3963566.0</v>
       </c>
       <c r="AB540" t="n" s="10">
-        <v>2469524.0</v>
+        <v>2461845.0</v>
       </c>
       <c r="AC540" t="n" s="10">
-        <v>50909.0</v>
+        <v>50915.0</v>
       </c>
     </row>
     <row r="541">
@@ -46508,82 +46508,82 @@
         <v>35</v>
       </c>
       <c r="D541" t="n" s="10">
-        <v>4315283.0</v>
+        <v>4310570.0</v>
       </c>
       <c r="E541" t="n" s="10">
-        <v>466690.0</v>
+        <v>467201.0</v>
       </c>
       <c r="F541" t="n" s="10">
-        <v>1002955.0</v>
+        <v>1003109.0</v>
       </c>
       <c r="G541" t="n" s="10">
-        <v>70662.0</v>
+        <v>73499.0</v>
       </c>
       <c r="H541" t="n" s="10">
-        <v>724740.0</v>
+        <v>718414.0</v>
       </c>
       <c r="I541" t="n" s="10">
-        <v>4777448.0</v>
+        <v>4773762.0</v>
       </c>
       <c r="J541" t="n" s="10">
-        <v>235774.0</v>
+        <v>252321.0</v>
       </c>
       <c r="K541" t="n" s="10">
-        <v>2240779.0</v>
+        <v>2238678.0</v>
       </c>
       <c r="L541" t="n" s="10">
-        <v>5571335.0</v>
+        <v>5607270.0</v>
       </c>
       <c r="M541" t="n" s="10">
-        <v>168052.0</v>
+        <v>171274.0</v>
       </c>
       <c r="N541" t="n" s="10">
-        <v>88559.0</v>
+        <v>90094.0</v>
       </c>
       <c r="O541" t="n" s="10">
-        <v>214613.0</v>
+        <v>217841.0</v>
       </c>
       <c r="P541" t="n" s="10">
-        <v>259419.0</v>
+        <v>259044.0</v>
       </c>
       <c r="Q541" t="n" s="10">
-        <v>45530.0</v>
+        <v>44447.0</v>
       </c>
       <c r="R541" t="n" s="10">
-        <v>8449346.0</v>
+        <v>8407778.0</v>
       </c>
       <c r="S541" t="n" s="10">
-        <v>3852716.0</v>
+        <v>3834236.0</v>
       </c>
       <c r="T541" t="n" s="10">
-        <v>5601213.0</v>
+        <v>5622874.0</v>
       </c>
       <c r="U541" t="n" s="10">
-        <v>601130.0</v>
+        <v>601288.0</v>
       </c>
       <c r="V541" t="n" s="10">
-        <v>1125170.0</v>
+        <v>1115651.0</v>
       </c>
       <c r="W541" t="n" s="10">
-        <v>1495593.0</v>
+        <v>1492212.0</v>
       </c>
       <c r="X541" t="n" s="10">
-        <v>1464935.0</v>
+        <v>1458563.0</v>
       </c>
       <c r="Y541" t="n" s="10">
-        <v>542374.0</v>
+        <v>543172.0</v>
       </c>
       <c r="Z541" t="n" s="10">
-        <v>2946736.0</v>
+        <v>2898220.0</v>
       </c>
       <c r="AA541" t="n" s="10">
-        <v>4127402.0</v>
+        <v>4081395.0</v>
       </c>
       <c r="AB541" t="n" s="10">
-        <v>2468138.0</v>
+        <v>2453778.0</v>
       </c>
       <c r="AC541" t="n" s="10">
-        <v>10701.0</v>
+        <v>15621.0</v>
       </c>
     </row>
     <row r="542">
@@ -46597,82 +46597,82 @@
         <v>35</v>
       </c>
       <c r="D542" t="n" s="10">
-        <v>4335674.0</v>
+        <v>4359132.0</v>
       </c>
       <c r="E542" t="n" s="10">
-        <v>373482.0</v>
+        <v>372863.0</v>
       </c>
       <c r="F542" t="n" s="10">
-        <v>1784460.0</v>
+        <v>1795778.0</v>
       </c>
       <c r="G542" t="n" s="10">
-        <v>193531.0</v>
+        <v>193156.0</v>
       </c>
       <c r="H542" t="n" s="10">
-        <v>1081987.0</v>
+        <v>1062349.0</v>
       </c>
       <c r="I542" t="n" s="10">
-        <v>9196342.0</v>
+        <v>9149681.0</v>
       </c>
       <c r="J542" t="n" s="10">
-        <v>625690.0</v>
+        <v>626721.0</v>
       </c>
       <c r="K542" t="n" s="10">
-        <v>689814.0</v>
+        <v>696148.0</v>
       </c>
       <c r="L542" t="n" s="10">
-        <v>6535156.0</v>
+        <v>6558570.0</v>
       </c>
       <c r="M542" t="n" s="10">
-        <v>332275.0</v>
+        <v>332864.0</v>
       </c>
       <c r="N542" t="n" s="10">
-        <v>151590.0</v>
+        <v>152312.0</v>
       </c>
       <c r="O542" t="n" s="10">
-        <v>360913.0</v>
+        <v>362713.0</v>
       </c>
       <c r="P542" t="n" s="10">
-        <v>582252.0</v>
+        <v>578976.0</v>
       </c>
       <c r="Q542" t="n" s="10">
-        <v>112681.0</v>
+        <v>111991.0</v>
       </c>
       <c r="R542" t="n" s="10">
-        <v>8438223.0</v>
+        <v>8442006.0</v>
       </c>
       <c r="S542" t="n" s="10">
-        <v>6150270.0</v>
+        <v>6123737.0</v>
       </c>
       <c r="T542" t="n" s="10">
-        <v>6571520.0</v>
+        <v>6661103.0</v>
       </c>
       <c r="U542" t="n" s="10">
-        <v>837733.0</v>
+        <v>836961.0</v>
       </c>
       <c r="V542" t="n" s="10">
-        <v>1543795.0</v>
+        <v>1531839.0</v>
       </c>
       <c r="W542" t="n" s="10">
-        <v>2277051.0</v>
+        <v>2255947.0</v>
       </c>
       <c r="X542" t="n" s="10">
-        <v>1372558.0</v>
+        <v>1385648.0</v>
       </c>
       <c r="Y542" t="n" s="10">
-        <v>541179.0</v>
+        <v>536315.0</v>
       </c>
       <c r="Z542" t="n" s="10">
-        <v>3894907.0</v>
+        <v>3882328.0</v>
       </c>
       <c r="AA542" t="n" s="10">
-        <v>4139496.0</v>
+        <v>4134966.0</v>
       </c>
       <c r="AB542" t="n" s="10">
-        <v>2515759.0</v>
+        <v>2494499.0</v>
       </c>
       <c r="AC542" t="n" s="10">
-        <v>52148.0</v>
+        <v>51670.0</v>
       </c>
     </row>
     <row r="543">
@@ -46683,82 +46683,82 @@
         <v>35</v>
       </c>
       <c r="D543" t="n" s="10">
-        <v>5045877.0</v>
+        <v>5066667.0</v>
       </c>
       <c r="E543" t="n" s="10">
-        <v>426878.0</v>
+        <v>424941.0</v>
       </c>
       <c r="F543" t="n" s="10">
-        <v>1045031.0</v>
+        <v>1048280.0</v>
       </c>
       <c r="G543" t="n" s="10">
-        <v>66370.0</v>
+        <v>71151.0</v>
       </c>
       <c r="H543" t="n" s="10">
-        <v>706652.0</v>
+        <v>692979.0</v>
       </c>
       <c r="I543" t="n" s="10">
-        <v>5492511.0</v>
+        <v>5449954.0</v>
       </c>
       <c r="J543" t="n" s="10">
-        <v>214408.0</v>
+        <v>245242.0</v>
       </c>
       <c r="K543" t="n" s="10">
-        <v>2060978.0</v>
+        <v>2072758.0</v>
       </c>
       <c r="L543" t="n" s="10">
-        <v>5571513.0</v>
+        <v>5618453.0</v>
       </c>
       <c r="M543" t="n" s="10">
-        <v>158518.0</v>
+        <v>162624.0</v>
       </c>
       <c r="N543" t="n" s="10">
-        <v>85719.0</v>
+        <v>88714.0</v>
       </c>
       <c r="O543" t="n" s="10">
-        <v>200487.0</v>
+        <v>207541.0</v>
       </c>
       <c r="P543" t="n" s="10">
-        <v>290002.0</v>
+        <v>287697.0</v>
       </c>
       <c r="Q543" t="n" s="10">
-        <v>40396.0</v>
+        <v>39013.0</v>
       </c>
       <c r="R543" t="n" s="10">
-        <v>8557809.0</v>
+        <v>8491456.0</v>
       </c>
       <c r="S543" t="n" s="10">
-        <v>4194899.0</v>
+        <v>4132910.0</v>
       </c>
       <c r="T543" t="n" s="10">
-        <v>5687253.0</v>
+        <v>5776142.0</v>
       </c>
       <c r="U543" t="n" s="10">
-        <v>591514.0</v>
+        <v>595716.0</v>
       </c>
       <c r="V543" t="n" s="10">
-        <v>1257841.0</v>
+        <v>1251566.0</v>
       </c>
       <c r="W543" t="n" s="10">
-        <v>1510911.0</v>
+        <v>1522873.0</v>
       </c>
       <c r="X543" t="n" s="10">
-        <v>1480451.0</v>
+        <v>1470923.0</v>
       </c>
       <c r="Y543" t="n" s="10">
-        <v>562179.0</v>
+        <v>562347.0</v>
       </c>
       <c r="Z543" t="n" s="10">
-        <v>2816205.0</v>
+        <v>3060912.0</v>
       </c>
       <c r="AA543" t="n" s="10">
-        <v>4278594.0</v>
+        <v>4224014.0</v>
       </c>
       <c r="AB543" t="n" s="10">
-        <v>2624239.0</v>
+        <v>2588537.0</v>
       </c>
       <c r="AC543" t="n" s="10">
-        <v>12531.0</v>
+        <v>25383.0</v>
       </c>
     </row>
     <row r="544">
@@ -46772,82 +46772,82 @@
         <v>35</v>
       </c>
       <c r="D544" t="n" s="10">
-        <v>3930128.0</v>
+        <v>3944740.0</v>
       </c>
       <c r="E544" t="n" s="10">
-        <v>369172.0</v>
+        <v>370114.0</v>
       </c>
       <c r="F544" t="n" s="10">
-        <v>1612544.0</v>
+        <v>1671872.0</v>
       </c>
       <c r="G544" t="n" s="10">
-        <v>178104.0</v>
+        <v>177749.0</v>
       </c>
       <c r="H544" t="n" s="10">
-        <v>995022.0</v>
+        <v>982919.0</v>
       </c>
       <c r="I544" t="n" s="10">
-        <v>8457323.0</v>
+        <v>8438873.0</v>
       </c>
       <c r="J544" t="n" s="10">
-        <v>619214.0</v>
+        <v>628026.0</v>
       </c>
       <c r="K544" t="n" s="10">
-        <v>640751.0</v>
+        <v>651206.0</v>
       </c>
       <c r="L544" t="n" s="10">
-        <v>6629798.0</v>
+        <v>6685013.0</v>
       </c>
       <c r="M544" t="n" s="10">
-        <v>331921.0</v>
+        <v>332094.0</v>
       </c>
       <c r="N544" t="n" s="10">
-        <v>163035.0</v>
+        <v>167797.0</v>
       </c>
       <c r="O544" t="n" s="10">
-        <v>348141.0</v>
+        <v>343328.0</v>
       </c>
       <c r="P544" t="n" s="10">
-        <v>564558.0</v>
+        <v>566545.0</v>
       </c>
       <c r="Q544" t="n" s="10">
-        <v>107065.0</v>
+        <v>106194.0</v>
       </c>
       <c r="R544" t="n" s="10">
-        <v>8249551.0</v>
+        <v>8174000.0</v>
       </c>
       <c r="S544" t="n" s="10">
-        <v>6064541.0</v>
+        <v>6057837.0</v>
       </c>
       <c r="T544" t="n" s="10">
-        <v>6305845.0</v>
+        <v>6383517.0</v>
       </c>
       <c r="U544" t="n" s="10">
-        <v>927820.0</v>
+        <v>917760.0</v>
       </c>
       <c r="V544" t="n" s="10">
-        <v>1573953.0</v>
+        <v>1561355.0</v>
       </c>
       <c r="W544" t="n" s="10">
-        <v>2015759.0</v>
+        <v>2002200.0</v>
       </c>
       <c r="X544" t="n" s="10">
-        <v>1189339.0</v>
+        <v>1180588.0</v>
       </c>
       <c r="Y544" t="n" s="10">
-        <v>493871.0</v>
+        <v>494158.0</v>
       </c>
       <c r="Z544" t="n" s="10">
-        <v>3657579.0</v>
+        <v>3645713.0</v>
       </c>
       <c r="AA544" t="n" s="10">
-        <v>3664864.0</v>
+        <v>3630560.0</v>
       </c>
       <c r="AB544" t="n" s="10">
-        <v>2465748.0</v>
+        <v>2447963.0</v>
       </c>
       <c r="AC544" t="n" s="10">
-        <v>92017.0</v>
+        <v>92019.0</v>
       </c>
     </row>
     <row r="545">
@@ -46858,82 +46858,82 @@
         <v>35</v>
       </c>
       <c r="D545" t="n" s="10">
-        <v>4460051.0</v>
+        <v>4498024.0</v>
       </c>
       <c r="E545" t="n" s="10">
-        <v>436100.0</v>
+        <v>439267.0</v>
       </c>
       <c r="F545" t="n" s="10">
-        <v>1039572.0</v>
+        <v>1036109.0</v>
       </c>
       <c r="G545" t="n" s="10">
-        <v>70441.0</v>
+        <v>72361.0</v>
       </c>
       <c r="H545" t="n" s="10">
-        <v>729460.0</v>
+        <v>718697.0</v>
       </c>
       <c r="I545" t="n" s="10">
-        <v>5256895.0</v>
+        <v>5223145.0</v>
       </c>
       <c r="J545" t="n" s="10">
-        <v>255652.0</v>
+        <v>259391.0</v>
       </c>
       <c r="K545" t="n" s="10">
-        <v>1643253.0</v>
+        <v>1601792.0</v>
       </c>
       <c r="L545" t="n" s="10">
-        <v>5686988.0</v>
+        <v>5732588.0</v>
       </c>
       <c r="M545" t="n" s="10">
-        <v>177051.0</v>
+        <v>180400.0</v>
       </c>
       <c r="N545" t="n" s="10">
-        <v>84398.0</v>
+        <v>90645.0</v>
       </c>
       <c r="O545" t="n" s="10">
-        <v>203951.0</v>
+        <v>210959.0</v>
       </c>
       <c r="P545" t="n" s="10">
-        <v>296308.0</v>
+        <v>299021.0</v>
       </c>
       <c r="Q545" t="n" s="10">
-        <v>42676.0</v>
+        <v>36722.0</v>
       </c>
       <c r="R545" t="n" s="10">
-        <v>8722399.0</v>
+        <v>8618521.0</v>
       </c>
       <c r="S545" t="n" s="10">
-        <v>4125949.0</v>
+        <v>4149841.0</v>
       </c>
       <c r="T545" t="n" s="10">
-        <v>5465709.0</v>
+        <v>5484155.0</v>
       </c>
       <c r="U545" t="n" s="10">
-        <v>664521.0</v>
+        <v>670828.0</v>
       </c>
       <c r="V545" t="n" s="10">
-        <v>1220630.0</v>
+        <v>1214477.0</v>
       </c>
       <c r="W545" t="n" s="10">
-        <v>1324055.0</v>
+        <v>1332384.0</v>
       </c>
       <c r="X545" t="n" s="10">
-        <v>1210067.0</v>
+        <v>1206962.0</v>
       </c>
       <c r="Y545" t="n" s="10">
-        <v>513267.0</v>
+        <v>510014.0</v>
       </c>
       <c r="Z545" t="n" s="10">
-        <v>2799958.0</v>
+        <v>2729808.0</v>
       </c>
       <c r="AA545" t="n" s="10">
-        <v>3907561.0</v>
+        <v>3860907.0</v>
       </c>
       <c r="AB545" t="n" s="10">
-        <v>2534003.0</v>
+        <v>2517481.0</v>
       </c>
       <c r="AC545" t="n" s="10">
-        <v>27929.0</v>
+        <v>29107.0</v>
       </c>
     </row>
     <row r="546">
@@ -46946,83 +46946,83 @@
       <c r="C546" t="s" s="13">
         <v>35</v>
       </c>
-      <c r="D546" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="E546" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="F546" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="G546" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="H546" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="I546" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="J546" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="K546" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="L546" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="M546" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="N546" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="O546" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="P546" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="Q546" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="R546" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="S546" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="T546" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="U546" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="V546" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="W546" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="X546" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="Y546" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="Z546" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="AA546" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="AB546" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="AC546" t="s" s="10">
-        <v>69</v>
+      <c r="D546" t="n" s="10">
+        <v>3838240.0</v>
+      </c>
+      <c r="E546" t="n" s="10">
+        <v>364860.0</v>
+      </c>
+      <c r="F546" t="n" s="10">
+        <v>1620958.0</v>
+      </c>
+      <c r="G546" t="n" s="10">
+        <v>187675.0</v>
+      </c>
+      <c r="H546" t="n" s="10">
+        <v>892044.0</v>
+      </c>
+      <c r="I546" t="n" s="10">
+        <v>7140639.0</v>
+      </c>
+      <c r="J546" t="n" s="10">
+        <v>565278.0</v>
+      </c>
+      <c r="K546" t="n" s="10">
+        <v>563882.0</v>
+      </c>
+      <c r="L546" t="n" s="10">
+        <v>4725365.0</v>
+      </c>
+      <c r="M546" t="n" s="10">
+        <v>320925.0</v>
+      </c>
+      <c r="N546" t="n" s="10">
+        <v>161154.0</v>
+      </c>
+      <c r="O546" t="n" s="10">
+        <v>364140.0</v>
+      </c>
+      <c r="P546" t="n" s="10">
+        <v>495927.0</v>
+      </c>
+      <c r="Q546" t="n" s="10">
+        <v>41450.0</v>
+      </c>
+      <c r="R546" t="n" s="10">
+        <v>7921074.0</v>
+      </c>
+      <c r="S546" t="n" s="10">
+        <v>5545763.0</v>
+      </c>
+      <c r="T546" t="n" s="10">
+        <v>6144675.0</v>
+      </c>
+      <c r="U546" t="n" s="10">
+        <v>674073.0</v>
+      </c>
+      <c r="V546" t="n" s="10">
+        <v>1497919.0</v>
+      </c>
+      <c r="W546" t="n" s="10">
+        <v>2036077.0</v>
+      </c>
+      <c r="X546" t="n" s="10">
+        <v>1085961.0</v>
+      </c>
+      <c r="Y546" t="n" s="10">
+        <v>459050.0</v>
+      </c>
+      <c r="Z546" t="n" s="10">
+        <v>3046438.0</v>
+      </c>
+      <c r="AA546" t="n" s="10">
+        <v>3665654.0</v>
+      </c>
+      <c r="AB546" t="n" s="10">
+        <v>2324168.0</v>
+      </c>
+      <c r="AC546" t="n" s="10">
+        <v>55662.0</v>
       </c>
     </row>
     <row r="547">
@@ -47032,83 +47032,83 @@
       <c r="C547" t="s" s="13">
         <v>35</v>
       </c>
-      <c r="D547" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="E547" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="F547" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="G547" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="H547" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="I547" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="J547" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="K547" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="L547" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="M547" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="N547" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="O547" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="P547" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="Q547" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="R547" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="S547" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="T547" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="U547" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="V547" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="W547" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="X547" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="Y547" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="Z547" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="AA547" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="AB547" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="AC547" t="s" s="10">
-        <v>69</v>
+      <c r="D547" t="n" s="10">
+        <v>4209800.0</v>
+      </c>
+      <c r="E547" t="n" s="10">
+        <v>399586.0</v>
+      </c>
+      <c r="F547" t="n" s="10">
+        <v>966269.0</v>
+      </c>
+      <c r="G547" t="n" s="10">
+        <v>68342.0</v>
+      </c>
+      <c r="H547" t="n" s="10">
+        <v>651413.0</v>
+      </c>
+      <c r="I547" t="n" s="10">
+        <v>4439608.0</v>
+      </c>
+      <c r="J547" t="n" s="10">
+        <v>213677.0</v>
+      </c>
+      <c r="K547" t="n" s="10">
+        <v>1900773.0</v>
+      </c>
+      <c r="L547" t="n" s="10">
+        <v>4550110.0</v>
+      </c>
+      <c r="M547" t="n" s="10">
+        <v>140459.0</v>
+      </c>
+      <c r="N547" t="n" s="10">
+        <v>100054.0</v>
+      </c>
+      <c r="O547" t="n" s="10">
+        <v>245889.0</v>
+      </c>
+      <c r="P547" t="n" s="10">
+        <v>290441.0</v>
+      </c>
+      <c r="Q547" t="n" s="10">
+        <v>36921.0</v>
+      </c>
+      <c r="R547" t="n" s="10">
+        <v>8193904.0</v>
+      </c>
+      <c r="S547" t="n" s="10">
+        <v>3428015.0</v>
+      </c>
+      <c r="T547" t="n" s="10">
+        <v>5330421.0</v>
+      </c>
+      <c r="U547" t="n" s="10">
+        <v>464489.0</v>
+      </c>
+      <c r="V547" t="n" s="10">
+        <v>1007047.0</v>
+      </c>
+      <c r="W547" t="n" s="10">
+        <v>1192887.0</v>
+      </c>
+      <c r="X547" t="n" s="10">
+        <v>973270.0</v>
+      </c>
+      <c r="Y547" t="n" s="10">
+        <v>462725.0</v>
+      </c>
+      <c r="Z547" t="n" s="10">
+        <v>2173003.0</v>
+      </c>
+      <c r="AA547" t="n" s="10">
+        <v>3564673.0</v>
+      </c>
+      <c r="AB547" t="n" s="10">
+        <v>1994279.0</v>
+      </c>
+      <c r="AC547" t="n" s="10">
+        <v>9480.0</v>
       </c>
     </row>
     <row r="548">
@@ -47121,83 +47121,83 @@
       <c r="C548" t="s" s="13">
         <v>35</v>
       </c>
-      <c r="D548" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="E548" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="F548" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="G548" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="H548" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="I548" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="J548" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="K548" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="L548" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="M548" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="N548" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="O548" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="P548" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="Q548" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="R548" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="S548" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="T548" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="U548" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="V548" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="W548" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="X548" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="Y548" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="Z548" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="AA548" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="AB548" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="AC548" t="s" s="10">
-        <v>69</v>
+      <c r="D548" t="n" s="10">
+        <v>4376864.0</v>
+      </c>
+      <c r="E548" t="n" s="10">
+        <v>408210.0</v>
+      </c>
+      <c r="F548" t="n" s="10">
+        <v>1864148.0</v>
+      </c>
+      <c r="G548" t="n" s="10">
+        <v>195578.0</v>
+      </c>
+      <c r="H548" t="n" s="10">
+        <v>1025456.0</v>
+      </c>
+      <c r="I548" t="n" s="10">
+        <v>8726501.0</v>
+      </c>
+      <c r="J548" t="n" s="10">
+        <v>695494.0</v>
+      </c>
+      <c r="K548" t="n" s="10">
+        <v>620186.0</v>
+      </c>
+      <c r="L548" t="n" s="10">
+        <v>6549719.0</v>
+      </c>
+      <c r="M548" t="n" s="10">
+        <v>362052.0</v>
+      </c>
+      <c r="N548" t="n" s="10">
+        <v>177881.0</v>
+      </c>
+      <c r="O548" t="n" s="10">
+        <v>380868.0</v>
+      </c>
+      <c r="P548" t="n" s="10">
+        <v>584295.0</v>
+      </c>
+      <c r="Q548" t="n" s="10">
+        <v>44851.0</v>
+      </c>
+      <c r="R548" t="n" s="10">
+        <v>8873922.0</v>
+      </c>
+      <c r="S548" t="n" s="10">
+        <v>6366019.0</v>
+      </c>
+      <c r="T548" t="n" s="10">
+        <v>6635622.0</v>
+      </c>
+      <c r="U548" t="n" s="10">
+        <v>810693.0</v>
+      </c>
+      <c r="V548" t="n" s="10">
+        <v>1588979.0</v>
+      </c>
+      <c r="W548" t="n" s="10">
+        <v>2368731.0</v>
+      </c>
+      <c r="X548" t="n" s="10">
+        <v>1215181.0</v>
+      </c>
+      <c r="Y548" t="n" s="10">
+        <v>591123.0</v>
+      </c>
+      <c r="Z548" t="n" s="10">
+        <v>3652130.0</v>
+      </c>
+      <c r="AA548" t="n" s="10">
+        <v>3982659.0</v>
+      </c>
+      <c r="AB548" t="n" s="10">
+        <v>2465319.0</v>
+      </c>
+      <c r="AC548" t="n" s="10">
+        <v>49354.0</v>
       </c>
     </row>
     <row r="549">
@@ -47207,83 +47207,83 @@
       <c r="C549" t="s" s="13">
         <v>35</v>
       </c>
-      <c r="D549" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="E549" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="F549" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="G549" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="H549" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="I549" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="J549" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="K549" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="L549" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="M549" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="N549" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="O549" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="P549" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="Q549" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="R549" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="S549" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="T549" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="U549" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="V549" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="W549" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="X549" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="Y549" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="Z549" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="AA549" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="AB549" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="AC549" t="s" s="10">
-        <v>69</v>
+      <c r="D549" t="n" s="10">
+        <v>4357869.0</v>
+      </c>
+      <c r="E549" t="n" s="10">
+        <v>495137.0</v>
+      </c>
+      <c r="F549" t="n" s="10">
+        <v>1098152.0</v>
+      </c>
+      <c r="G549" t="n" s="10">
+        <v>74194.0</v>
+      </c>
+      <c r="H549" t="n" s="10">
+        <v>693935.0</v>
+      </c>
+      <c r="I549" t="n" s="10">
+        <v>5294786.0</v>
+      </c>
+      <c r="J549" t="n" s="10">
+        <v>197791.0</v>
+      </c>
+      <c r="K549" t="n" s="10">
+        <v>1715941.0</v>
+      </c>
+      <c r="L549" t="n" s="10">
+        <v>5472346.0</v>
+      </c>
+      <c r="M549" t="n" s="10">
+        <v>165684.0</v>
+      </c>
+      <c r="N549" t="n" s="10">
+        <v>97063.0</v>
+      </c>
+      <c r="O549" t="n" s="10">
+        <v>221506.0</v>
+      </c>
+      <c r="P549" t="n" s="10">
+        <v>290828.0</v>
+      </c>
+      <c r="Q549" t="n" s="10">
+        <v>35210.0</v>
+      </c>
+      <c r="R549" t="n" s="10">
+        <v>9017317.0</v>
+      </c>
+      <c r="S549" t="n" s="10">
+        <v>4262017.0</v>
+      </c>
+      <c r="T549" t="n" s="10">
+        <v>5831190.0</v>
+      </c>
+      <c r="U549" t="n" s="10">
+        <v>624453.0</v>
+      </c>
+      <c r="V549" t="n" s="10">
+        <v>1228755.0</v>
+      </c>
+      <c r="W549" t="n" s="10">
+        <v>1539201.0</v>
+      </c>
+      <c r="X549" t="n" s="10">
+        <v>1175134.0</v>
+      </c>
+      <c r="Y549" t="n" s="10">
+        <v>549705.0</v>
+      </c>
+      <c r="Z549" t="n" s="10">
+        <v>2542528.0</v>
+      </c>
+      <c r="AA549" t="n" s="10">
+        <v>4174103.0</v>
+      </c>
+      <c r="AB549" t="n" s="10">
+        <v>2540066.0</v>
+      </c>
+      <c r="AC549" t="n" s="10">
+        <v>7961.0</v>
       </c>
     </row>
     <row r="550">
@@ -47296,83 +47296,83 @@
       <c r="C550" t="s" s="13">
         <v>35</v>
       </c>
-      <c r="D550" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="E550" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="F550" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="G550" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="H550" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="I550" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="J550" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="K550" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="L550" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="M550" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="N550" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="O550" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="P550" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="Q550" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="R550" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="S550" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="T550" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="U550" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="V550" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="W550" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="X550" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="Y550" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="Z550" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="AA550" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="AB550" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="AC550" t="s" s="10">
-        <v>69</v>
+      <c r="D550" t="n" s="10">
+        <v>4574943.0</v>
+      </c>
+      <c r="E550" t="n" s="10">
+        <v>405483.0</v>
+      </c>
+      <c r="F550" t="n" s="10">
+        <v>1884359.0</v>
+      </c>
+      <c r="G550" t="n" s="10">
+        <v>201287.0</v>
+      </c>
+      <c r="H550" t="n" s="10">
+        <v>1072433.0</v>
+      </c>
+      <c r="I550" t="n" s="10">
+        <v>8838270.0</v>
+      </c>
+      <c r="J550" t="n" s="10">
+        <v>576988.0</v>
+      </c>
+      <c r="K550" t="n" s="10">
+        <v>649335.0</v>
+      </c>
+      <c r="L550" t="n" s="10">
+        <v>7607930.0</v>
+      </c>
+      <c r="M550" t="n" s="10">
+        <v>351979.0</v>
+      </c>
+      <c r="N550" t="n" s="10">
+        <v>176582.0</v>
+      </c>
+      <c r="O550" t="n" s="10">
+        <v>401745.0</v>
+      </c>
+      <c r="P550" t="n" s="10">
+        <v>634739.0</v>
+      </c>
+      <c r="Q550" t="n" s="10">
+        <v>52375.0</v>
+      </c>
+      <c r="R550" t="n" s="10">
+        <v>8826805.0</v>
+      </c>
+      <c r="S550" t="n" s="10">
+        <v>6447188.0</v>
+      </c>
+      <c r="T550" t="n" s="10">
+        <v>6994998.0</v>
+      </c>
+      <c r="U550" t="n" s="10">
+        <v>910851.0</v>
+      </c>
+      <c r="V550" t="n" s="10">
+        <v>1577450.0</v>
+      </c>
+      <c r="W550" t="n" s="10">
+        <v>2348857.0</v>
+      </c>
+      <c r="X550" t="n" s="10">
+        <v>1265670.0</v>
+      </c>
+      <c r="Y550" t="n" s="10">
+        <v>540507.0</v>
+      </c>
+      <c r="Z550" t="n" s="10">
+        <v>3640807.0</v>
+      </c>
+      <c r="AA550" t="n" s="10">
+        <v>4218509.0</v>
+      </c>
+      <c r="AB550" t="n" s="10">
+        <v>2527225.0</v>
+      </c>
+      <c r="AC550" t="n" s="10">
+        <v>53133.0</v>
       </c>
     </row>
     <row r="551">
@@ -47382,83 +47382,83 @@
       <c r="C551" t="s" s="13">
         <v>35</v>
       </c>
-      <c r="D551" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="E551" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="F551" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="G551" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="H551" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="I551" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="J551" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="K551" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="L551" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="M551" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="N551" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="O551" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="P551" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="Q551" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="R551" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="S551" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="T551" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="U551" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="V551" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="W551" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="X551" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="Y551" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="Z551" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="AA551" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="AB551" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="AC551" t="s" s="10">
-        <v>69</v>
+      <c r="D551" t="n" s="10">
+        <v>4614064.0</v>
+      </c>
+      <c r="E551" t="n" s="10">
+        <v>406648.0</v>
+      </c>
+      <c r="F551" t="n" s="10">
+        <v>1163793.0</v>
+      </c>
+      <c r="G551" t="n" s="10">
+        <v>67931.0</v>
+      </c>
+      <c r="H551" t="n" s="10">
+        <v>770902.0</v>
+      </c>
+      <c r="I551" t="n" s="10">
+        <v>5733024.0</v>
+      </c>
+      <c r="J551" t="n" s="10">
+        <v>239190.0</v>
+      </c>
+      <c r="K551" t="n" s="10">
+        <v>2011241.0</v>
+      </c>
+      <c r="L551" t="n" s="10">
+        <v>5806590.0</v>
+      </c>
+      <c r="M551" t="n" s="10">
+        <v>180987.0</v>
+      </c>
+      <c r="N551" t="n" s="10">
+        <v>88498.0</v>
+      </c>
+      <c r="O551" t="n" s="10">
+        <v>239418.0</v>
+      </c>
+      <c r="P551" t="n" s="10">
+        <v>296513.0</v>
+      </c>
+      <c r="Q551" t="n" s="10">
+        <v>40997.0</v>
+      </c>
+      <c r="R551" t="n" s="10">
+        <v>1.034424E7</v>
+      </c>
+      <c r="S551" t="n" s="10">
+        <v>4189658.0</v>
+      </c>
+      <c r="T551" t="n" s="10">
+        <v>6121095.0</v>
+      </c>
+      <c r="U551" t="n" s="10">
+        <v>625472.0</v>
+      </c>
+      <c r="V551" t="n" s="10">
+        <v>1299915.0</v>
+      </c>
+      <c r="W551" t="n" s="10">
+        <v>1530061.0</v>
+      </c>
+      <c r="X551" t="n" s="10">
+        <v>1640694.0</v>
+      </c>
+      <c r="Y551" t="n" s="10">
+        <v>613664.0</v>
+      </c>
+      <c r="Z551" t="n" s="10">
+        <v>2781489.0</v>
+      </c>
+      <c r="AA551" t="n" s="10">
+        <v>4487701.0</v>
+      </c>
+      <c r="AB551" t="n" s="10">
+        <v>2479769.0</v>
+      </c>
+      <c r="AC551" t="n" s="10">
+        <v>7155.0</v>
       </c>
     </row>
     <row r="552">
@@ -47854,7 +47854,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 10:12:25&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:08:27&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>